--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22957375-3D9E-4E8D-B3AE-D7B61295A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5550B7-D93C-470F-9A4C-D75F240030F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
   <si>
     <t>Item Number</t>
   </si>
@@ -49,15 +49,9 @@
     <t>WIP</t>
   </si>
   <si>
-    <t>Plan Road Shows</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>College doors app walkthrough to team</t>
-  </si>
-  <si>
     <t>Sayan</t>
   </si>
   <si>
@@ -79,15 +73,9 @@
     <t>Google Anttech Photoshhot</t>
   </si>
   <si>
-    <t>Google Anttech Google Landing Page</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Student fees collection report</t>
-  </si>
-  <si>
     <t>Debasish Nath</t>
   </si>
   <si>
@@ -127,36 +115,12 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Planned for 10-Nov After morning stand-up</t>
-  </si>
-  <si>
-    <t>ID card for all</t>
-  </si>
-  <si>
-    <t>Furniture Repairing</t>
-  </si>
-  <si>
     <t>Anirban Chakrabarty</t>
   </si>
   <si>
     <t>Company Income Expense Ledger &amp; Balance Sheet</t>
   </si>
   <si>
-    <t>File for daily visit enquiry Sheet</t>
-  </si>
-  <si>
-    <t>File for bio data of teacher</t>
-  </si>
-  <si>
-    <t>New File to be purchased</t>
-  </si>
-  <si>
-    <t>Already file is there, we need to remove other documents from this file</t>
-  </si>
-  <si>
-    <t>Fees Collection report done.Java Student Batch creation left in ClassPlus APP</t>
-  </si>
-  <si>
     <t>Debashish To Help</t>
   </si>
   <si>
@@ -172,25 +136,12 @@
     <t>Mock test Dry run</t>
   </si>
   <si>
-    <t>Debashish and Ananya tested from our end and raised 25 defects. We notified College Doors
-Waqar reverted back and we will check on Monday (20th November 2023)</t>
-  </si>
-  <si>
-    <t>Conduct Internal Assessment Test Physics</t>
-  </si>
-  <si>
-    <t>Conduct Internal Assessment Test Chem</t>
-  </si>
-  <si>
     <t>Mock Test Question Paper</t>
   </si>
   <si>
     <t>Mock Test Presentation</t>
   </si>
   <si>
-    <t>Photo shoot of Sathi and Victor is done. Sayan and Rahul still yet to give photo to Anirban</t>
-  </si>
-  <si>
     <t>Flow chart for Mock Test</t>
   </si>
   <si>
@@ -338,12 +289,6 @@
     <t>Dry run a mock test end to end as per the above equence / timeline of key activities</t>
   </si>
   <si>
-    <t>Talk to Avishek Sir.  Talked with Avishek Sir. He will take test on 25-11-2023.</t>
-  </si>
-  <si>
-    <t>Subroto Sir will set question paper.</t>
-  </si>
-  <si>
     <t>Is the demo class rehearsed?</t>
   </si>
   <si>
@@ -380,19 +325,72 @@
     <t>CRM calls</t>
   </si>
   <si>
-    <t>Plan Institutional Marketing</t>
-  </si>
-  <si>
-    <t>Youtubing</t>
-  </si>
-  <si>
     <t>anodiam.com website</t>
   </si>
   <si>
-    <t>Conduct Mock Test</t>
-  </si>
-  <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Need to break this down further</t>
+  </si>
+  <si>
+    <t>Need to Plan</t>
+  </si>
+  <si>
+    <t>Google Anttech Google business site</t>
+  </si>
+  <si>
+    <t>First cut to be discussed</t>
+  </si>
+  <si>
+    <t>Integration with Class plus website / app login</t>
+  </si>
+  <si>
+    <t>Student fees collection report for December</t>
+  </si>
+  <si>
+    <t>Anirban has to send bank receipt</t>
+  </si>
+  <si>
+    <t>Avishek to complete correction by 30-Dec-2023</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test Physics - Avishek - Dec</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test Maths - Avishek - Dec</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test Chem - Avishek - Nov</t>
+  </si>
+  <si>
+    <t>Exam to be conducted on 30-Dec-2023</t>
+  </si>
+  <si>
+    <t>Anirban to have a walkthrough</t>
+  </si>
+  <si>
+    <t>Plan College Visits</t>
+  </si>
+  <si>
+    <t>Batch start for Priyangsu Giri BBA Sem 1</t>
+  </si>
+  <si>
+    <t>Need to send email to Anupam sir</t>
+  </si>
+  <si>
+    <t>Ask Classplus about the URL / hyperlink for anodiam web app login / register</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Ask Anttech to give us a sample of an existing / running https://www.google.business.sample.site
+Design the corresponding pages &amp; components for https://www.google.business.anodiam.site
+Test the responsiveness of https://www.google.business.sample.site</t>
+  </si>
+  <si>
+    <t>To start in Feb 4th week</t>
   </si>
 </sst>
 </file>
@@ -477,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,15 +487,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,23 +803,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.59765625" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.73046875" customWidth="1"/>
-    <col min="8" max="8" width="27.1328125" customWidth="1"/>
+    <col min="7" max="7" width="78.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -829,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -844,498 +845,417 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="G18" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="G19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1345,7 +1265,7 @@
   <dimension ref="A2:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD54"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1355,19 +1275,19 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1375,10 +1295,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1387,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1395,10 +1315,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1407,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1415,19 +1335,19 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1435,19 +1355,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1455,10 +1375,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1467,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1475,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1486,10 +1406,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1497,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1508,10 +1428,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1519,10 +1439,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1530,10 +1450,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1541,10 +1461,10 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1552,10 +1472,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1563,10 +1483,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1574,10 +1494,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1585,21 +1505,21 @@
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>94</v>
+      <c r="B19" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1607,10 +1527,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1618,10 +1538,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1629,10 +1549,10 @@
         <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1640,10 +1560,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1651,10 +1571,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1662,10 +1582,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1673,10 +1593,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1684,10 +1604,10 @@
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1695,10 +1615,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1706,10 +1626,10 @@
         <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1717,10 +1637,10 @@
         <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1728,10 +1648,10 @@
         <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -1739,10 +1659,10 @@
         <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1750,10 +1670,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1761,10 +1681,10 @@
         <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1772,10 +1692,10 @@
         <v>55</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1783,10 +1703,10 @@
         <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1794,10 +1714,10 @@
         <v>57</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1805,10 +1725,10 @@
         <v>58</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -1816,10 +1736,10 @@
         <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1827,10 +1747,10 @@
         <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1838,10 +1758,10 @@
         <v>61</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1849,10 +1769,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1860,10 +1780,10 @@
         <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1871,10 +1791,10 @@
         <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -1882,10 +1802,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1893,10 +1813,10 @@
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1904,10 +1824,10 @@
         <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1915,10 +1835,10 @@
         <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1926,10 +1846,10 @@
         <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1937,10 +1857,10 @@
         <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1948,10 +1868,10 @@
         <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1959,10 +1879,10 @@
         <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1970,10 +1890,10 @@
         <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1981,10 +1901,10 @@
         <v>75</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2013,158 +1933,158 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5550B7-D93C-470F-9A4C-D75F240030F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E7D17-251D-49BB-B4FB-A8A39BC746EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>Item Number</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Batch start for Priyangsu Giri BBA Sem 1</t>
-  </si>
-  <si>
-    <t>Need to send email to Anupam sir</t>
   </si>
   <si>
     <t>Ask Classplus about the URL / hyperlink for anodiam web app login / register</t>
@@ -391,6 +388,12 @@
   </si>
   <si>
     <t>To start in Feb 4th week</t>
+  </si>
+  <si>
+    <t>Sort out profitability sheet</t>
+  </si>
+  <si>
+    <t>Anirban needs to send email about fees to Anupam sir, Rahul to let Anirban know of the exact subject names</t>
   </si>
 </sst>
 </file>
@@ -803,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -818,7 +821,7 @@
     <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.3984375" customWidth="1"/>
+    <col min="7" max="7" width="88.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>11</v>
@@ -942,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -965,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
@@ -988,7 +991,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>36</v>
@@ -1000,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1011,7 +1014,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>36</v>
@@ -1034,7 +1037,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>36</v>
@@ -1046,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1228,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1250,9 +1253,30 @@
       <c r="F19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="G19" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5550B7-D93C-470F-9A4C-D75F240030F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DA68B-2A49-4745-81E5-A0D8A330E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="127">
   <si>
     <t>Item Number</t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>To start in Feb 4th week</t>
+  </si>
+  <si>
+    <t>Off Day</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Time </t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -498,6 +510,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,24 +821,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.3984375" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="78.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -869,7 +885,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -890,7 +906,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -911,7 +927,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -934,7 +950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -957,7 +973,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -980,7 +996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1003,7 +1019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1049,7 +1065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1095,7 +1111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1118,7 +1134,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1164,7 +1180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1187,7 +1203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1208,7 +1224,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1231,7 +1247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1264,13 +1280,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1330,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1350,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1370,7 +1389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1401,7 +1420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1412,7 +1431,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1423,7 +1442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1434,7 +1453,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1445,7 +1464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1478,7 +1497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1489,7 +1508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1522,7 +1541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1533,7 +1552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1555,7 +1574,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1566,7 +1585,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1577,7 +1596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1588,7 +1607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1599,7 +1618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1610,7 +1629,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1621,7 +1640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1643,7 +1662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -1709,7 +1728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -1720,7 +1739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -1731,7 +1750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -1753,7 +1772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -1764,7 +1783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -1786,7 +1805,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -1797,7 +1816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -1808,7 +1827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -1863,7 +1882,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -1874,7 +1893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -1885,7 +1904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -1914,24 +1933,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1956,8 +1976,17 @@
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="L2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1982,8 +2011,17 @@
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2008,8 +2046,17 @@
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
@@ -2034,8 +2081,15 @@
       <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
@@ -2060,8 +2114,17 @@
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="L6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -2086,8 +2149,42 @@
       <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E7D17-251D-49BB-B4FB-A8A39BC746EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB72EE3-69A6-457E-9B48-3777F98690FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>Google Anttech Google business site</t>
   </si>
   <si>
-    <t>First cut to be discussed</t>
-  </si>
-  <si>
     <t>Integration with Class plus website / app login</t>
   </si>
   <si>
@@ -382,11 +379,6 @@
     <t>Digital Marketing</t>
   </si>
   <si>
-    <t>Ask Anttech to give us a sample of an existing / running https://www.google.business.sample.site
-Design the corresponding pages &amp; components for https://www.google.business.anodiam.site
-Test the responsiveness of https://www.google.business.sample.site</t>
-  </si>
-  <si>
     <t>To start in Feb 4th week</t>
   </si>
   <si>
@@ -394,6 +386,27 @@
   </si>
   <si>
     <t>Anirban needs to send email about fees to Anupam sir, Rahul to let Anirban know of the exact subject names</t>
+  </si>
+  <si>
+    <t>Develop anodiam.com replicating the above https://www.google.business.anodiam.site</t>
+  </si>
+  <si>
+    <t>1. Design the corresponding components for https://www.google.business.anodiam.site
+    A. Images &amp; Logos
+    B. Videos, Youtube content. Create an youtube channel and start putting in our contents
+    C. Fonts (Oxygen) and font sizes
+    D. Color schemes (RGBA values) of each component
+    E. Hyperlinks and Button Click Events including whatsapp integration
+    F. Texts and headings (verbose properly / a lot is already there in ppts already)
+    G. About Us &amp; Service should have following sections:
+       i.     AI Junior &amp; Robotics
+      ii.     AI Professional &amp; IT
+     iii.     Other Swim lanes (You may want to avoid this for now)
+2. Antech to develop https://www.google.business.anodiam.site using above components
+3. Ensure we have a button to:
+    A. download anodiam app from google playstore if anodiam app is not already installed
+    B. Use onclick event of same button to open anodiam app if it is already installed
+4. Test the responsiveness of https://www.google.business.sample.site</t>
   </si>
 </sst>
 </file>
@@ -809,19 +822,19 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.9296875" customWidth="1"/>
     <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.796875" customWidth="1"/>
     <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -877,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>92</v>
@@ -922,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>11</v>
@@ -945,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -968,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
@@ -983,7 +996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="228" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>36</v>
@@ -1003,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1014,7 +1027,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>36</v>
@@ -1026,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1034,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>36</v>
@@ -1049,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1057,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>93</v>
@@ -1072,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1080,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>93</v>
@@ -1095,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1103,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>93</v>
@@ -1118,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1126,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>93</v>
@@ -1141,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1187,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1231,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1239,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>93</v>
@@ -1254,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1262,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB72EE3-69A6-457E-9B48-3777F98690FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01851906-23C8-4EBC-8F87-82759C95B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
   <si>
     <t>Item Number</t>
   </si>
@@ -407,6 +407,12 @@
     A. download anodiam app from google playstore if anodiam app is not already installed
     B. Use onclick event of same button to open anodiam app if it is already installed
 4. Test the responsiveness of https://www.google.business.sample.site</t>
+  </si>
+  <si>
+    <t>AI Internal Classes</t>
+  </si>
+  <si>
+    <t>Start from 4-Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -819,11 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -929,33 +935,31 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>103</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>118</v>
@@ -975,56 +979,56 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10">
         <v>5</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>118</v>
@@ -1036,18 +1040,18 @@
         <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>118</v>
@@ -1061,45 +1065,45 @@
       <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>117</v>
+      <c r="G10" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E11" s="10">
         <v>5</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10">
         <v>5</v>
@@ -1108,15 +1112,15 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>93</v>
@@ -1131,15 +1135,15 @@
         <v>8</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>93</v>
@@ -1159,70 +1163,72 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10">
         <v>5</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
@@ -1290,6 +1296,29 @@
         <v>8</v>
       </c>
       <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01851906-23C8-4EBC-8F87-82759C95B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F33DE-A7D6-402D-8CB9-6109AF35A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
   <si>
     <t>Item Number</t>
   </si>
@@ -61,9 +61,6 @@
     <t>News Paper flyers distribution</t>
   </si>
   <si>
-    <t>College doors app defect management</t>
-  </si>
-  <si>
     <t>Reel Plan (Generic Ad)</t>
   </si>
   <si>
@@ -352,21 +349,9 @@
     <t>Avishek to complete correction by 30-Dec-2023</t>
   </si>
   <si>
-    <t>Conduct Internal Assessment Test Physics - Avishek - Dec</t>
-  </si>
-  <si>
-    <t>Conduct Internal Assessment Test Maths - Avishek - Dec</t>
-  </si>
-  <si>
     <t>Conduct Internal Assessment Test Chem - Avishek - Nov</t>
   </si>
   <si>
-    <t>Exam to be conducted on 30-Dec-2023</t>
-  </si>
-  <si>
-    <t>Anirban to have a walkthrough</t>
-  </si>
-  <si>
     <t>Plan College Visits</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
   </si>
   <si>
     <t>To start in Feb 4th week</t>
-  </si>
-  <si>
-    <t>Sort out profitability sheet</t>
   </si>
   <si>
     <t>Anirban needs to send email about fees to Anupam sir, Rahul to let Anirban know of the exact subject names</t>
@@ -409,10 +391,19 @@
 4. Test the responsiveness of https://www.google.business.sample.site</t>
   </si>
   <si>
-    <t>AI Internal Classes</t>
-  </si>
-  <si>
     <t>Start from 4-Jan-2024</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for schools</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for colleges</t>
+  </si>
+  <si>
+    <t>AI Internal Classes by Anirban</t>
+  </si>
+  <si>
+    <t>AI Internal Classes - Sayan</t>
   </si>
 </sst>
 </file>
@@ -497,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -517,9 +508,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,17 +813,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.9296875" customWidth="1"/>
+    <col min="2" max="2" width="41.53125" customWidth="1"/>
     <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
@@ -852,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -878,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
@@ -896,10 +884,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -908,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -917,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10">
         <v>5</v>
@@ -935,16 +923,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10">
         <v>5</v>
@@ -956,200 +944,196 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>103</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E9" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>123</v>
+      <c r="G9" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10">
         <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10">
         <v>5</v>
@@ -1158,21 +1142,21 @@
         <v>8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="10">
         <v>5</v>
@@ -1181,18 +1165,18 @@
         <v>8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>11</v>
@@ -1204,124 +1188,103 @@
         <v>5</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>119</v>
+      <c r="G18" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>18</v>
+      <c r="A19" s="11">
+        <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E19" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="E20" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>125</v>
+      <c r="F20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1341,19 +1304,19 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1361,10 +1324,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1373,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1381,10 +1344,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1393,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1401,10 +1364,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1413,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1421,19 +1384,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1441,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1453,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1461,10 +1424,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1472,10 +1435,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1483,10 +1446,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1494,10 +1457,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1505,10 +1468,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1516,10 +1479,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1527,10 +1490,10 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1538,10 +1501,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1549,10 +1512,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1560,10 +1523,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1571,10 +1534,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -1582,10 +1545,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1593,10 +1556,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1604,10 +1567,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1615,10 +1578,10 @@
         <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1626,10 +1589,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1637,10 +1600,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1648,10 +1611,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1659,10 +1622,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1670,10 +1633,10 @@
         <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1681,10 +1644,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1692,10 +1655,10 @@
         <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1703,10 +1666,10 @@
         <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1714,10 +1677,10 @@
         <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -1725,10 +1688,10 @@
         <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1736,10 +1699,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1747,10 +1710,10 @@
         <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1758,10 +1721,10 @@
         <v>55</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1769,10 +1732,10 @@
         <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1780,10 +1743,10 @@
         <v>57</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1791,10 +1754,10 @@
         <v>58</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -1802,10 +1765,10 @@
         <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1813,10 +1776,10 @@
         <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1824,10 +1787,10 @@
         <v>61</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1835,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1846,10 +1809,10 @@
         <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1857,10 +1820,10 @@
         <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -1868,10 +1831,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1879,10 +1842,10 @@
         <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1890,10 +1853,10 @@
         <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1901,10 +1864,10 @@
         <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1912,10 +1875,10 @@
         <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1923,10 +1886,10 @@
         <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1934,10 +1897,10 @@
         <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1945,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1956,10 +1919,10 @@
         <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1967,10 +1930,10 @@
         <v>75</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1999,158 +1962,158 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F33DE-A7D6-402D-8CB9-6109AF35A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE83C7-75C3-4C35-9F30-A062C60561BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -816,23 +816,23 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.53125" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="93.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -900,7 +900,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1191,9 +1191,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>12</v>
@@ -1214,9 +1214,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>111</v>
@@ -1237,9 +1237,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>122</v>
@@ -1260,9 +1260,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>121</v>
@@ -1284,7 +1284,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1297,9 +1297,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -1949,18 +1949,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE83C7-75C3-4C35-9F30-A062C60561BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788449B1-74FF-41A1-AE5A-ADBDF51240AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,14 +816,14 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788449B1-74FF-41A1-AE5A-ADBDF51240AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6AFBF2-A566-4D65-A25B-959D9697559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t>Item Number</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Student fees collection report for December</t>
-  </si>
-  <si>
-    <t>Anirban has to send bank receipt</t>
   </si>
   <si>
     <t>Avishek to complete correction by 30-Dec-2023</t>
@@ -404,6 +401,18 @@
   </si>
   <si>
     <t>AI Internal Classes - Sayan</t>
+  </si>
+  <si>
+    <t>CAT Batch Start</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Chck Just Dial daily</t>
+  </si>
+  <si>
+    <t>Anirban has to send bank receipt after 8-Jan</t>
   </si>
 </sst>
 </file>
@@ -813,26 +822,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="93.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -858,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -879,12 +888,12 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>91</v>
@@ -896,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>91</v>
@@ -921,12 +930,12 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>91</v>
@@ -938,11 +947,11 @@
         <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -961,9 +970,11 @@
       <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -984,7 +995,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>11</v>
@@ -1007,7 +1018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>11</v>
@@ -1030,7 +1041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
@@ -1053,7 +1064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="228" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>35</v>
@@ -1073,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>35</v>
@@ -1096,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>35</v>
@@ -1119,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1142,15 +1153,15 @@
         <v>8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>92</v>
@@ -1165,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1211,15 +1222,15 @@
         <v>8</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>92</v>
@@ -1234,15 +1245,15 @@
         <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>92</v>
@@ -1257,15 +1268,15 @@
         <v>5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>92</v>
@@ -1280,7 +1291,27 @@
         <v>5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1297,9 +1328,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1319,7 +1350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1339,7 +1370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1359,7 +1390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1379,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1399,7 +1430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1419,7 +1450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1430,7 +1461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1441,7 +1472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1452,7 +1483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1463,7 +1494,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1474,7 +1505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1485,7 +1516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1496,7 +1527,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1507,7 +1538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1518,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1540,7 +1571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1551,7 +1582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1562,7 +1593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1573,7 +1604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1584,7 +1615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1595,7 +1626,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1606,7 +1637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1617,7 +1648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1628,7 +1659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1639,7 +1670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1650,7 +1681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1661,7 +1692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1672,7 +1703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -1683,7 +1714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -1694,7 +1725,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -1705,7 +1736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -1716,7 +1747,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -1727,7 +1758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -1738,7 +1769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -1749,7 +1780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -1760,7 +1791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -1771,7 +1802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -1782,7 +1813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -1793,7 +1824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -1804,7 +1835,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -1815,7 +1846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -1826,7 +1857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -1837,7 +1868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -1848,7 +1879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -1859,7 +1890,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -1870,7 +1901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -1881,7 +1912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -1892,7 +1923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -1903,7 +1934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -1914,7 +1945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -1925,7 +1956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -1949,18 +1980,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2090,7 +2121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6AFBF2-A566-4D65-A25B-959D9697559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8283738D-DBC0-4CEE-B86A-40790089A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
   <si>
     <t>Item Number</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Anirban has to send bank receipt after 8-Jan</t>
+  </si>
+  <si>
+    <t>Free demo class booking feature in software</t>
+  </si>
+  <si>
+    <t>Prepare Notice board pamphlet template</t>
   </si>
 </sst>
 </file>
@@ -822,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -935,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>91</v>
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -956,74 +962,72 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10">
         <v>5</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>112</v>
@@ -1046,53 +1050,53 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10">
         <v>5</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="228" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>112</v>
@@ -1104,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>115</v>
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1115,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>112</v>
@@ -1129,8 +1133,8 @@
       <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>111</v>
+      <c r="G13" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1138,22 +1142,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E14" s="10">
         <v>5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1161,13 +1165,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10">
         <v>5</v>
@@ -1176,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1184,22 +1188,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E16" s="10">
         <v>5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1207,22 +1211,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1230,22 +1234,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>114</v>
+      <c r="G18" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1253,22 +1257,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E19" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>117</v>
+        <v>8</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1276,13 +1280,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -1295,17 +1299,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10">
         <v>3</v>
@@ -1313,9 +1317,52 @@
       <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="G21" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8283738D-DBC0-4CEE-B86A-40790089A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6009F-41B0-42AF-9315-D0463EBA5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
   <si>
     <t>Item Number</t>
   </si>
@@ -368,6 +368,63 @@
   </si>
   <si>
     <t>Develop anodiam.com replicating the above https://www.google.business.anodiam.site</t>
+  </si>
+  <si>
+    <t>Start from 4-Jan-2024</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for schools</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for colleges</t>
+  </si>
+  <si>
+    <t>AI Internal Classes by Anirban</t>
+  </si>
+  <si>
+    <t>AI Internal Classes - Sayan</t>
+  </si>
+  <si>
+    <t>CAT Batch Start</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Anirban has to send bank receipt after 8-Jan</t>
+  </si>
+  <si>
+    <t>Prepare Notice board pamphlet template</t>
+  </si>
+  <si>
+    <t>Make a Google calander</t>
+  </si>
+  <si>
+    <t>Sayan and Anupam Sir Bank details</t>
+  </si>
+  <si>
+    <t>New email ID for Rahul and Sayan. Possible gmail group</t>
+  </si>
+  <si>
+    <t>New student attendance for Manju Ray's son</t>
+  </si>
+  <si>
+    <t>Consilidate School and College marketing sheets into one workbook</t>
+  </si>
+  <si>
+    <t>Check Just Dial daily. Transfer to Urban Pro</t>
+  </si>
+  <si>
+    <t>Contact Pranay for status update</t>
+  </si>
+  <si>
+    <t>Classplus: Website first screen not responsive</t>
+  </si>
+  <si>
+    <t>Classplus: Login page appearing twice, is this a cache problem? How to sort this?</t>
+  </si>
+  <si>
+    <t>Classplus: Anodiam Branding absent</t>
   </si>
   <si>
     <t>1. Design the corresponding components for https://www.google.business.anodiam.site
@@ -385,40 +442,8 @@
 3. Ensure we have a button to:
     A. download anodiam app from google playstore if anodiam app is not already installed
     B. Use onclick event of same button to open anodiam app if it is already installed
-4. Test the responsiveness of https://www.google.business.sample.site</t>
-  </si>
-  <si>
-    <t>Start from 4-Jan-2024</t>
-  </si>
-  <si>
-    <t>Prepare generic attachment proposals for schools</t>
-  </si>
-  <si>
-    <t>Prepare generic attachment proposals for colleges</t>
-  </si>
-  <si>
-    <t>AI Internal Classes by Anirban</t>
-  </si>
-  <si>
-    <t>AI Internal Classes - Sayan</t>
-  </si>
-  <si>
-    <t>CAT Batch Start</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Chck Just Dial daily</t>
-  </si>
-  <si>
-    <t>Anirban has to send bank receipt after 8-Jan</t>
-  </si>
-  <si>
-    <t>Free demo class booking feature in software</t>
-  </si>
-  <si>
-    <t>Prepare Notice board pamphlet template</t>
+4. Test the responsiveness of https://www.google.business.sample.site
+5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
   </si>
 </sst>
 </file>
@@ -462,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,6 +555,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,11 +865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:F5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,19 +936,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -920,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>91</v>
@@ -932,37 +969,37 @@
         <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>91</v>
@@ -974,22 +1011,24 @@
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10">
         <v>5</v>
@@ -997,52 +1036,50 @@
       <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="B8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1050,22 +1087,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1073,45 +1110,45 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="228" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>116</v>
+      <c r="G12" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1119,13 +1156,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10">
         <v>5</v>
@@ -1134,15 +1171,15 @@
         <v>5</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>112</v>
@@ -1154,64 +1191,65 @@
         <v>5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>92</v>
@@ -1223,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1234,22 +1272,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1257,22 +1295,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10">
         <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1280,22 +1318,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1303,22 +1341,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E21" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>117</v>
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1326,19 +1364,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E22" s="10">
         <v>3</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>5</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1346,23 +1387,146 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>3</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10">
-        <v>5</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="D27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6009F-41B0-42AF-9315-D0463EBA5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6497D05-78E6-42AB-980C-96C5E98EC84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
   <si>
     <t>Item Number</t>
   </si>
@@ -444,6 +444,9 @@
     B. Use onclick event of same button to open anodiam app if it is already installed
 4. Test the responsiveness of https://www.google.business.sample.site
 5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
+  </si>
+  <si>
+    <t>Sent mail to class plus. Waiting for reply.</t>
   </si>
 </sst>
 </file>
@@ -868,23 +871,23 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="93.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -910,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -931,7 +934,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -952,7 +955,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -973,7 +976,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -994,7 +997,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1038,7 +1041,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1425,27 +1428,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="11">
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>25</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="10">
-        <v>5</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -1482,10 +1485,13 @@
         <v>5</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -1502,10 +1508,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -1522,11 +1531,19 @@
         <v>5</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
+      <formula1>"Todo,WIP,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1539,9 +1556,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1561,7 +1578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1581,7 +1598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1661,7 +1678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1672,7 +1689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1694,7 +1711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1716,7 +1733,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1727,7 +1744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1749,7 +1766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1782,7 +1799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1804,7 +1821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1815,7 +1832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1826,7 +1843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1837,7 +1854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1848,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1881,7 +1898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1914,7 +1931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -2002,7 +2019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -2013,7 +2030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -2112,7 +2129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -2134,7 +2151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -2156,7 +2173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -2191,18 +2208,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2280,7 +2297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6009F-41B0-42AF-9315-D0463EBA5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7566DB-6FF7-4808-82E4-7DC34A16D081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="137">
   <si>
     <t>Item Number</t>
   </si>
@@ -444,6 +444,9 @@
     B. Use onclick event of same button to open anodiam app if it is already installed
 4. Test the responsiveness of https://www.google.business.sample.site
 5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
+  </si>
+  <si>
+    <t>Create events at meetup app or https://www.townscript.com/</t>
   </si>
 </sst>
 </file>
@@ -865,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1522,6 +1525,26 @@
         <v>5</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6497D05-78E6-42AB-980C-96C5E98EC84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011C40C-A39A-4C79-87F1-E964D0EF549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
   <si>
     <t>Item Number</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>Sent mail to class plus. Waiting for reply.</t>
+  </si>
+  <si>
+    <t>Create events at meetup app or https://www.townscript.com/</t>
   </si>
 </sst>
 </file>
@@ -868,26 +871,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="93.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -913,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -934,7 +937,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -955,7 +958,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -976,7 +979,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -997,7 +1000,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1041,7 +1044,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>25</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -1535,6 +1538,26 @@
       </c>
       <c r="G29" s="10" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1556,9 +1579,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1578,7 +1601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1598,7 +1621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1618,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1638,7 +1661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1658,7 +1681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1678,7 +1701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1700,7 +1723,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1711,7 +1734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1722,7 +1745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1733,7 +1756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1755,7 +1778,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1766,7 +1789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1777,7 +1800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1799,7 +1822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1810,7 +1833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1821,7 +1844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1832,7 +1855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1843,7 +1866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1854,7 +1877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1865,7 +1888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1876,7 +1899,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1887,7 +1910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1898,7 +1921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1920,7 +1943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1931,7 +1954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -1942,7 +1965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -1953,7 +1976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -1964,7 +1987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -1975,7 +1998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -1986,7 +2009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -1997,7 +2020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -2008,7 +2031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -2019,7 +2042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -2030,7 +2053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -2052,7 +2075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -2063,7 +2086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -2074,7 +2097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -2085,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -2096,7 +2119,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -2107,7 +2130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -2118,7 +2141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -2129,7 +2152,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -2140,7 +2163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -2151,7 +2174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -2162,7 +2185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -2173,7 +2196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -2184,7 +2207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -2208,18 +2231,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2245,7 +2268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2323,7 +2346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011C40C-A39A-4C79-87F1-E964D0EF549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD29CC-CCBD-45D4-902D-8B8D733DD680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
   <si>
     <t>Item Number</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Create events at meetup app or https://www.townscript.com/</t>
+  </si>
+  <si>
+    <t>Publish purchased course materials on Anodiam platform</t>
   </si>
 </sst>
 </file>
@@ -871,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1557,6 +1560,26 @@
         <v>5</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD29CC-CCBD-45D4-902D-8B8D733DD680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F52D42-78D0-4716-85F4-CE7194DCD9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -364,21 +364,12 @@
     <t>To start in Feb 4th week</t>
   </si>
   <si>
-    <t>Anirban needs to send email about fees to Anupam sir, Rahul to let Anirban know of the exact subject names</t>
-  </si>
-  <si>
     <t>Develop anodiam.com replicating the above https://www.google.business.anodiam.site</t>
   </si>
   <si>
     <t>Start from 4-Jan-2024</t>
   </si>
   <si>
-    <t>Prepare generic attachment proposals for schools</t>
-  </si>
-  <si>
-    <t>Prepare generic attachment proposals for colleges</t>
-  </si>
-  <si>
     <t>AI Internal Classes by Anirban</t>
   </si>
   <si>
@@ -392,9 +383,6 @@
   </si>
   <si>
     <t>Anirban has to send bank receipt after 8-Jan</t>
-  </si>
-  <si>
-    <t>Prepare Notice board pamphlet template</t>
   </si>
   <si>
     <t>Make a Google calander</t>
@@ -453,6 +441,18 @@
   </si>
   <si>
     <t>Publish purchased course materials on Anodiam platform</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for schools: Notice</t>
+  </si>
+  <si>
+    <t>Prepare generic attachment proposals for colleges: Notice</t>
+  </si>
+  <si>
+    <t>Send Remuneration email to Anupam Sir</t>
+  </si>
+  <si>
+    <t>Ops Sheet by Debasish Da</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +512,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -564,12 +582,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,15 +895,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.9296875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
@@ -923,7 +942,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -944,8 +963,8 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>125</v>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>91</v>
@@ -965,8 +984,8 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>127</v>
+      <c r="B4" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>91</v>
@@ -982,32 +1001,32 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1023,15 +1042,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>124</v>
+      <c r="B7" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>91</v>
@@ -1048,35 +1067,37 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>99</v>
+      <c r="B9" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>35</v>
@@ -1087,178 +1108,169 @@
       <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>130</v>
+      <c r="G9" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>98</v>
+      <c r="B10" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10">
         <v>5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>131</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
+      <c r="B11" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
+      <c r="B12" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
+      <c r="B13" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10">
         <v>5</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>104</v>
+      <c r="B14" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E14" s="10">
         <v>5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="13">
-        <v>5</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>106</v>
+      <c r="B17" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>92</v>
@@ -1267,27 +1279,27 @@
         <v>11</v>
       </c>
       <c r="E17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10">
         <v>5</v>
@@ -1296,61 +1308,58 @@
         <v>8</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E20" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>92</v>
@@ -1362,44 +1371,44 @@
         <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10">
         <v>3</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>11</v>
@@ -1408,183 +1417,194 @@
         <v>3</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13">
-        <v>5</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="E27" s="12">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="15">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="10">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>27</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="10">
-        <v>5</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>28</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="E30" s="15">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="10">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>29</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="10">
-        <v>5</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="10">
-        <v>5</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="10">
-        <v>4</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>5</v>
+      <c r="E31" s="15">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F52D42-78D0-4716-85F4-CE7194DCD9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCBB4D5-D884-403A-9B18-7D92A8FA165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>Check Just Dial daily. Transfer to Urban Pro</t>
-  </si>
-  <si>
-    <t>Contact Pranay for status update</t>
   </si>
   <si>
     <t>Classplus: Website first screen not responsive</t>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Ops Sheet by Debasish Da</t>
+  </si>
+  <si>
+    <t>Pranay has been updated.</t>
   </si>
 </sst>
 </file>
@@ -893,26 +893,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.9296875" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="93.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -938,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -959,7 +960,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -980,7 +981,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1001,12 +1002,12 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>91</v>
@@ -1022,7 +1023,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1045,12 +1046,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>91</v>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1109,15 +1110,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>92</v>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1199,15 +1200,15 @@
         <v>8</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>91</v>
@@ -1222,12 +1223,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>92</v>
@@ -1242,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1354,30 +1355,30 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="10">
-        <v>5</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E21" s="15">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1493,7 +1494,7 @@
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1534,12 +1535,12 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>91</v>
@@ -1554,15 +1555,15 @@
         <v>119</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>91</v>
@@ -1577,15 +1578,15 @@
         <v>119</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>91</v>
@@ -1600,11 +1601,17 @@
         <v>119</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1622,9 +1629,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1821,7 +1828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1832,7 +1839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1865,7 +1872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -1997,7 +2004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -2030,7 +2037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -2041,7 +2048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -2173,7 +2180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -2184,7 +2191,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -2195,7 +2202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -2217,7 +2224,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -2228,7 +2235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -2274,18 +2281,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2415,7 +2422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCBB4D5-D884-403A-9B18-7D92A8FA165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B09D4-3F3F-4F83-8036-CA54463886A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -939,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1002,7 +1013,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1023,7 +1034,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1046,7 +1057,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1067,7 +1078,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1113,7 +1124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1424,7 +1435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1470,7 +1481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1494,7 +1505,7 @@
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1535,7 +1546,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1606,9 +1617,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Debashish"/>
+        <filter val="WIP"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B09D4-3F3F-4F83-8036-CA54463886A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6DBDF7-DC36-4230-A5FD-168E21C28787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -589,17 +589,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,12 +915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,679 +961,706 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="12">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="G2" s="12"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>103</v>
       </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="14" t="s">
         <v>130</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="G18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="C22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="15">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10">
-        <v>4</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="15">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="10">
-        <v>5</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="D28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="10">
-        <v>5</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="E28" s="18">
+        <v>5</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="15">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E29" s="18">
+        <v>5</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="G29" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="D30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="12">
-        <v>5</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E30" s="18">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="G30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="12">
-        <v>5</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E31" s="18">
+        <v>5</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="12">
-        <v>5</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="15">
-        <v>5</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="G31" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15">
-        <v>5</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="15">
-        <v>5</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="WIP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <dataValidations count="1">
+  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6DBDF7-DC36-4230-A5FD-168E21C28787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B805D-F11A-4102-98FF-2EA837590267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,12 +605,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,22 +1162,22 @@
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>107</v>
       </c>
       <c r="H11" s="3"/>
@@ -1231,7 +1225,7 @@
       <c r="F13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>137</v>
       </c>
       <c r="H13" s="3"/>
@@ -1304,7 +1298,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1494,8 +1488,8 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1516,10 +1510,10 @@
       <c r="G25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -1540,10 +1534,10 @@
       <c r="G26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -1562,7 +1556,7 @@
         <v>119</v>
       </c>
       <c r="G27" s="19"/>
-      <c r="H27" s="22"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1660,7 +1654,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B805D-F11A-4102-98FF-2EA837590267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7742B29-685E-410A-BE54-F350F556BE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7742B29-685E-410A-BE54-F350F556BE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005A8D-D24B-4282-9E6A-E09BDBC83713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,14 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
   <si>
     <t>Item Number</t>
   </si>
@@ -342,9 +331,6 @@
     <t>Need to break this down further</t>
   </si>
   <si>
-    <t>Need to Plan</t>
-  </si>
-  <si>
     <t>Google Anttech Google business site</t>
   </si>
   <si>
@@ -352,12 +338,6 @@
   </si>
   <si>
     <t>Student fees collection report for December</t>
-  </si>
-  <si>
-    <t>Avishek to complete correction by 30-Dec-2023</t>
-  </si>
-  <si>
-    <t>Conduct Internal Assessment Test Chem - Avishek - Nov</t>
   </si>
   <si>
     <t>Plan College Visits</t>
@@ -464,6 +444,12 @@
   </si>
   <si>
     <t>Pranay has been updated.</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test BBA</t>
+  </si>
+  <si>
+    <t>Talk to Anupam sir for Internal monthly tests &amp; Give positive feedback about specific improvement path</t>
   </si>
 </sst>
 </file>
@@ -572,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -594,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -912,23 +895,23 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.73046875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="67.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -976,12 +959,12 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>91</v>
@@ -993,17 +976,17 @@
         <v>5</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>91</v>
@@ -1015,17 +998,17 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -1042,12 +1025,12 @@
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>91</v>
@@ -1062,16 +1045,16 @@
         <v>8</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>91</v>
@@ -1088,7 +1071,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1096,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
@@ -1107,20 +1090,18 @@
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>35</v>
@@ -1131,17 +1112,17 @@
       <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>130</v>
+      <c r="G9" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
@@ -1158,31 +1139,31 @@
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>107</v>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1206,45 +1187,43 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="15">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>132</v>
+      <c r="B14" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12">
         <v>4</v>
-      </c>
-      <c r="E14" s="12">
-        <v>5</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>5</v>
@@ -1252,64 +1231,66 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>133</v>
+      <c r="B15" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>117</v>
+      <c r="B16" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>116</v>
+      <c r="B17" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12">
         <v>3</v>
@@ -1318,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>106</v>
+      <c r="B18" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>92</v>
@@ -1336,324 +1317,324 @@
         <v>11</v>
       </c>
       <c r="E18" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E19" s="12">
         <v>3</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E20" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="18">
-        <v>5</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>138</v>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>102</v>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12">
-        <v>3</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>102</v>
+      <c r="B23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="B24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="15">
-        <v>5</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>114</v>
+      <c r="E25" s="14">
+        <v>5</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="B26" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="E26" s="17">
+        <v>5</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="15">
-        <v>5</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="19"/>
+      <c r="E27" s="17">
+        <v>5</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="B28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="18">
-        <v>5</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="18"/>
+      <c r="E28" s="17">
+        <v>5</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="18">
-        <v>5</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>131</v>
+      <c r="E29" s="17">
+        <v>5</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="18">
-        <v>5</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="B30" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="18">
-        <v>5</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>131</v>
+      <c r="E31" s="17">
+        <v>5</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="H31" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1671,9 +1652,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1693,7 +1674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1713,7 +1694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1733,7 +1714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1753,7 +1734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1773,7 +1754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1793,7 +1774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1804,7 +1785,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1815,7 +1796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1826,7 +1807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1837,7 +1818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1848,7 +1829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1859,7 +1840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1870,7 +1851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1881,7 +1862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1892,7 +1873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1903,7 +1884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1914,7 +1895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1925,7 +1906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1936,7 +1917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1947,7 +1928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1958,7 +1939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1969,7 +1950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1980,7 +1961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1991,7 +1972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -2002,7 +1983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -2013,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -2024,7 +2005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -2035,7 +2016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -2046,7 +2027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -2057,7 +2038,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -2068,7 +2049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -2079,7 +2060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -2090,7 +2071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -2101,7 +2082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -2112,7 +2093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -2123,7 +2104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -2134,7 +2115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -2145,7 +2126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -2156,7 +2137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -2167,7 +2148,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -2178,7 +2159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -2189,7 +2170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -2200,7 +2181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -2211,7 +2192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -2222,7 +2203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -2233,7 +2214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -2244,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -2255,7 +2236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -2266,7 +2247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -2277,7 +2258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -2288,7 +2269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -2299,7 +2280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -2323,18 +2304,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2438,7 +2419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2464,7 +2445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005A8D-D24B-4282-9E6A-E09BDBC83713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2746BEE-2303-4D03-B47F-BF8A5F42E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,9 +319,6 @@
     <t>Start / config Selenium batch for Ashmita / Pranay</t>
   </si>
   <si>
-    <t>CRM calls</t>
-  </si>
-  <si>
     <t>anodiam.com website</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t>Talk to Anupam sir for Internal monthly tests &amp; Give positive feedback about specific improvement path</t>
+  </si>
+  <si>
+    <t>CRM calls: Just dial to Urban Pro</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A31"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>91</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>91</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>91</v>
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>91</v>
@@ -1079,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
@@ -1098,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>35</v>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>92</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>91</v>
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
@@ -1236,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
@@ -1251,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1260,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>94</v>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1284,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>92</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1335,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>11</v>
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1404,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>35</v>
@@ -1416,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>35</v>
@@ -1440,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>92</v>
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>92</v>
@@ -1486,10 +1486,10 @@
         <v>5</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1498,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>92</v>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="3"/>
@@ -1520,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>91</v>
@@ -1532,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1544,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>91</v>
@@ -1556,10 +1556,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1568,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>91</v>
@@ -1580,10 +1580,10 @@
         <v>5</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>92</v>
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="3"/>
@@ -1626,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="3"/>
     </row>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2746BEE-2303-4D03-B47F-BF8A5F42E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A13C4-C8EF-49E2-A9A4-DF9CC8EF5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="MockTest" sheetId="3" r:id="rId2"/>
-    <sheet name="WorkDays" sheetId="2" r:id="rId3"/>
+    <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
+    <sheet name="WorkDays" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$29</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="145">
   <si>
     <t>Item Number</t>
   </si>
@@ -450,6 +451,27 @@
   </si>
   <si>
     <t>CRM calls: Just dial to Urban Pro</t>
+  </si>
+  <si>
+    <t>Opening Hours should be 10 AM to 7 PM.</t>
+  </si>
+  <si>
+    <t>Antech</t>
+  </si>
+  <si>
+    <t>Address of our institute should be : N 1/25, Kunal Road,Patuli, Kolkata - 700094</t>
+  </si>
+  <si>
+    <t>In Appointments: wa.me area, there should be whats app icon.</t>
+  </si>
+  <si>
+    <t>There is no place for giving review comments</t>
+  </si>
+  <si>
+    <t>On pressing Website button the page should redirect to google.anodiam.mybusiness.site</t>
+  </si>
+  <si>
+    <t>The outside photo (360 degree) of our institute should be proper with banners and no blury images</t>
   </si>
 </sst>
 </file>
@@ -894,24 +916,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="67.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -937,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -959,7 +981,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -981,7 +1003,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1003,7 +1025,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1025,7 +1047,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1049,7 +1071,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1071,7 +1093,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1093,7 +1115,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1117,7 +1139,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1139,7 +1161,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1163,7 +1185,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1187,7 +1209,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1209,7 +1231,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1231,7 +1253,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1255,7 +1277,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1279,7 +1301,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1303,7 +1325,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1327,7 +1349,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1351,7 +1373,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1375,7 +1397,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1399,7 +1421,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1423,7 +1445,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1447,7 +1469,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1469,7 +1491,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1493,7 +1515,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1515,7 +1537,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1539,7 +1561,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1563,7 +1585,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1587,7 +1609,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1609,7 +1631,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1652,9 +1674,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>23</v>
       </c>
@@ -1674,7 +1696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25</v>
       </c>
@@ -1714,7 +1736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -1754,7 +1776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>28</v>
       </c>
@@ -1785,7 +1807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>29</v>
       </c>
@@ -1796,7 +1818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1807,7 +1829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1818,7 +1840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>32</v>
       </c>
@@ -1829,7 +1851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>33</v>
       </c>
@@ -1840,7 +1862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>34</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>35</v>
       </c>
@@ -1862,7 +1884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1873,7 +1895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>38</v>
       </c>
@@ -1895,7 +1917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>39</v>
       </c>
@@ -1906,7 +1928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40</v>
       </c>
@@ -1917,7 +1939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42</v>
       </c>
@@ -1939,7 +1961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43</v>
       </c>
@@ -1950,7 +1972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44</v>
       </c>
@@ -1961,7 +1983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>45</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>46</v>
       </c>
@@ -1983,7 +2005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>47</v>
       </c>
@@ -1994,7 +2016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>48</v>
       </c>
@@ -2005,7 +2027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>49</v>
       </c>
@@ -2016,7 +2038,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>50</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>51</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>52</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>53</v>
       </c>
@@ -2060,7 +2082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>54</v>
       </c>
@@ -2071,7 +2093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>55</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>56</v>
       </c>
@@ -2093,7 +2115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>57</v>
       </c>
@@ -2104,7 +2126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>58</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>59</v>
       </c>
@@ -2126,7 +2148,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>60</v>
       </c>
@@ -2137,7 +2159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>61</v>
       </c>
@@ -2148,7 +2170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>62</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>63</v>
       </c>
@@ -2170,7 +2192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>64</v>
       </c>
@@ -2181,7 +2203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>65</v>
       </c>
@@ -2192,7 +2214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>66</v>
       </c>
@@ -2203,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>67</v>
       </c>
@@ -2214,7 +2236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>69</v>
       </c>
@@ -2225,7 +2247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>70</v>
       </c>
@@ -2236,7 +2258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>71</v>
       </c>
@@ -2247,7 +2269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>72</v>
       </c>
@@ -2258,7 +2280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>73</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>74</v>
       </c>
@@ -2280,7 +2302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>75</v>
       </c>
@@ -2297,6 +2319,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{360E118C-F521-4CC7-8556-EFA9418D197E}">
+      <formula1>"Todo,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A1101A09-0BF8-4916-A084-6A46F4BC7A80}">
+      <formula1>"Marketing"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{051203AA-A044-47B3-ADD5-39B3C5409E6D}">
+      <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I7"/>
   <sheetViews>
@@ -2304,18 +2502,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +2539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2367,7 +2565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2393,7 +2591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A13C4-C8EF-49E2-A9A4-DF9CC8EF5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B6D29-659E-48E4-9AA1-8563D0EE51A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,9 +14,20 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -918,18 +929,18 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.77734375" customWidth="1"/>
+    <col min="7" max="7" width="92.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1656,7 +1667,7 @@
       <c r="H31" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -2323,7 +2334,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B6D29-659E-48E4-9AA1-8563D0EE51A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190D617-A839-473E-947C-CAF0858468F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -927,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
@@ -1172,7 +1172,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>136</v>
@@ -2333,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190D617-A839-473E-947C-CAF0858468F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E197E43-FAA5-427A-9505-9CD1F35606DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Consilidate School and College marketing sheets into one workbook</t>
   </si>
   <si>
-    <t>Check Just Dial daily. Transfer to Urban Pro</t>
-  </si>
-  <si>
     <t>Classplus: Website first screen not responsive</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>The outside photo (360 degree) of our institute should be proper with banners and no blury images</t>
+  </si>
+  <si>
+    <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>91</v>
@@ -1126,7 +1126,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="262.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>92</v>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>91</v>
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>94</v>
@@ -1308,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1522,7 +1522,7 @@
         <v>115</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1553,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>91</v>
@@ -1568,7 +1568,7 @@
         <v>115</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1577,7 +1577,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>91</v>
@@ -1592,7 +1592,7 @@
         <v>115</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1601,7 +1601,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>91</v>
@@ -1616,7 +1616,7 @@
         <v>115</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1662,7 +1662,7 @@
         <v>115</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1681,15 +1681,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1709,7 +1714,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1729,7 +1734,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1749,7 +1754,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -1769,7 +1774,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1789,7 +1794,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1809,7 +1814,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>43</v>
@@ -1820,7 +1825,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>44</v>
@@ -1831,7 +1836,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>45</v>
@@ -1842,7 +1847,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>46</v>
@@ -1853,7 +1858,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>47</v>
@@ -1864,7 +1869,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>48</v>
@@ -1875,7 +1880,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>49</v>
@@ -1886,7 +1891,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>50</v>
@@ -1897,7 +1902,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>51</v>
@@ -1908,7 +1913,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>88</v>
@@ -1919,7 +1924,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>89</v>
@@ -1928,9 +1933,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>77</v>
@@ -1941,7 +1946,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>52</v>
@@ -1952,7 +1957,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>53</v>
@@ -1963,7 +1968,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>54</v>
@@ -1974,7 +1979,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>55</v>
@@ -1985,7 +1990,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>56</v>
@@ -1996,7 +2001,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>57</v>
@@ -2007,7 +2012,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>58</v>
@@ -2018,7 +2023,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>59</v>
@@ -2029,7 +2034,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>60</v>
@@ -2040,7 +2045,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>61</v>
@@ -2051,7 +2056,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>62</v>
@@ -2062,7 +2067,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>63</v>
@@ -2073,7 +2078,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>64</v>
@@ -2084,7 +2089,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>65</v>
@@ -2095,7 +2100,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>66</v>
@@ -2106,7 +2111,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>67</v>
@@ -2117,7 +2122,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>68</v>
@@ -2128,7 +2133,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>69</v>
@@ -2139,7 +2144,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>70</v>
@@ -2150,7 +2155,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>71</v>
@@ -2161,7 +2166,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>72</v>
@@ -2172,7 +2177,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>73</v>
@@ -2183,7 +2188,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>74</v>
@@ -2194,7 +2199,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>75</v>
@@ -2205,7 +2210,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>76</v>
@@ -2216,7 +2221,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>78</v>
@@ -2227,7 +2232,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>79</v>
@@ -2238,7 +2243,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>80</v>
@@ -2249,7 +2254,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>81</v>
@@ -2260,7 +2265,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>82</v>
@@ -2271,7 +2276,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>83</v>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>84</v>
@@ -2293,7 +2298,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>85</v>
@@ -2304,7 +2309,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>86</v>
@@ -2315,7 +2320,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>87</v>
@@ -2374,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2394,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2414,13 +2419,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2434,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2454,13 +2459,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2474,13 +2479,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>5</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E197E43-FAA5-427A-9505-9CD1F35606DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21277F8-87C8-41A3-84D7-57481977A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="WorkDays" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="147">
   <si>
     <t>Item Number</t>
   </si>
@@ -479,10 +479,16 @@
     <t>On pressing Website button the page should redirect to google.anodiam.mybusiness.site</t>
   </si>
   <si>
-    <t>The outside photo (360 degree) of our institute should be proper with banners and no blury images</t>
-  </si>
-  <si>
     <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com</t>
+  </si>
+  <si>
+    <t>The inside &amp; outside photo (360 degree) of our institute should be proper with banners and no blury images</t>
+  </si>
+  <si>
+    <t>Publish AI course materials on Anodiam platform</t>
+  </si>
+  <si>
+    <t>Start from 11-Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -925,11 +931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
@@ -1167,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
@@ -1213,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>93</v>
@@ -1253,7 +1259,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1308,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1329,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1353,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>111</v>
@@ -1377,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>101</v>
@@ -1401,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>101</v>
@@ -1666,8 +1672,29 @@
       </c>
       <c r="H31" s="3"/>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="12">
+        <v>4</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1681,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
@@ -2338,14 +2365,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
@@ -2379,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21277F8-87C8-41A3-84D7-57481977A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D931D4F-F825-4B9D-8839-CB0235017C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="MockTest" sheetId="3" r:id="rId2"/>
+    <sheet name="Website-Tracker" sheetId="6" r:id="rId2"/>
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
-    <sheet name="WorkDays" sheetId="2" r:id="rId4"/>
+    <sheet name="MockTest" sheetId="3" r:id="rId4"/>
+    <sheet name="WorkDays" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$32</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="163">
   <si>
     <t>Item Number</t>
   </si>
@@ -489,6 +490,54 @@
   </si>
   <si>
     <t>Start from 11-Jan-2024</t>
+  </si>
+  <si>
+    <t>Images &amp; Logos</t>
+  </si>
+  <si>
+    <t>Videos, Youtube content. Create an youtube channel and start putting in our contents</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>Fonts (Oxygen) and font sizes</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Color schemes (RGBA values) of each component</t>
+  </si>
+  <si>
+    <t>Hyperlinks and Button Click Events including whatsapp integration</t>
+  </si>
+  <si>
+    <t>Texts and headings (verbose properly / a lot is already there in ppts already)</t>
+  </si>
+  <si>
+    <t>Test the responsiveness of https://www.google.business.sample.site</t>
+  </si>
+  <si>
+    <t>Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
+  </si>
+  <si>
+    <t>About Us &amp; Service should have AI Junior &amp; Robotics</t>
+  </si>
+  <si>
+    <t>About Us &amp; Service should have AI Professional &amp; IT</t>
+  </si>
+  <si>
+    <t>About Us &amp; Service should have other Swim lanes (You may want to avoid this for now)</t>
+  </si>
+  <si>
+    <t>Ensure we have a button to download anodiam app from google playstore if anodiam app is not already installed</t>
+  </si>
+  <si>
+    <t>Ensure we have a button to Use onclick event of same button to open anodiam app if it is already installed</t>
   </si>
 </sst>
 </file>
@@ -532,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +618,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -597,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -627,6 +682,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,14 +998,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
@@ -952,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1705,658 +1770,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
-  <dimension ref="A2:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136D2009-10A6-4464-93EC-3A44F4732081}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="C1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="B13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" t="s">
-        <v>96</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{227B3915-0C77-41D2-9640-7A55E9B16B2E}">
+      <formula1>"Todo,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{C8A1565F-452C-4E23-AEF5-9AC39208582A}">
+      <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2538,6 +2273,684 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I7"/>
   <sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D931D4F-F825-4B9D-8839-CB0235017C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACA85E-EF08-4ECC-8ABC-7F16DBB881E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -998,9 +998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1760,9 +1760,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{8C84AC62-5D87-4226-921A-1C47F6785021}">
+      <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136D2009-10A6-4464-93EC-3A44F4732081}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACA85E-EF08-4ECC-8ABC-7F16DBB881E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F18E79-BF79-4131-BAC2-B9FD51B93A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
   <si>
     <t>Item Number</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>New student attendance for Manju Ray's son</t>
-  </si>
-  <si>
-    <t>Consilidate School and College marketing sheets into one workbook</t>
   </si>
   <si>
     <t>Classplus: Website first screen not responsive</t>
@@ -996,11 +993,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1041,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1063,7 +1061,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -1148,9 +1146,7 @@
       <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>121</v>
-      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1158,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>91</v>
@@ -1197,7 +1193,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="262.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="262.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1217,16 +1213,16 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
@@ -1243,12 +1239,12 @@
       <c r="G10" s="12"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>92</v>
@@ -1263,11 +1259,11 @@
         <v>8</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1291,12 +1287,12 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>91</v>
@@ -1313,12 +1309,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
@@ -1335,7 +1331,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1359,12 +1355,12 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>94</v>
@@ -1379,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1403,11 +1399,11 @@
         <v>8</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1431,7 +1427,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1455,7 +1451,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1479,7 +1475,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1503,7 +1499,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1527,7 +1523,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1573,7 +1569,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1593,11 +1589,11 @@
         <v>115</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1619,12 +1615,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>91</v>
@@ -1639,16 +1635,16 @@
         <v>115</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>91</v>
@@ -1663,16 +1659,16 @@
         <v>115</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>91</v>
@@ -1687,11 +1683,11 @@
         <v>115</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1713,7 +1709,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1733,7 +1729,7 @@
         <v>115</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1742,7 +1738,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>92</v>
@@ -1759,7 +1755,13 @@
       <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sayan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1792,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -1818,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>91</v>
@@ -1839,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>91</v>
@@ -1860,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -1881,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -1902,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -1923,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -1944,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -1965,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>91</v>
@@ -1986,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>91</v>
@@ -2007,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -2028,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>91</v>
@@ -2049,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>91</v>
@@ -2070,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>91</v>
@@ -2144,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2164,13 +2166,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2184,13 +2186,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2204,13 +2206,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2224,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2244,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2293,16 +2295,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F18E79-BF79-4131-BAC2-B9FD51B93A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79182EC-1426-4292-A3F2-8AB6DEE5FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
   <si>
     <t>Item Number</t>
   </si>
@@ -383,9 +372,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Anirban has to send bank receipt after 8-Jan</t>
-  </si>
-  <si>
     <t>Make a Google calander</t>
   </si>
   <si>
@@ -407,25 +393,6 @@
     <t>Classplus: Anodiam Branding absent</t>
   </si>
   <si>
-    <t>1. Design the corresponding components for https://www.google.business.anodiam.site
-    A. Images &amp; Logos
-    B. Videos, Youtube content. Create an youtube channel and start putting in our contents
-    C. Fonts (Oxygen) and font sizes
-    D. Color schemes (RGBA values) of each component
-    E. Hyperlinks and Button Click Events including whatsapp integration
-    F. Texts and headings (verbose properly / a lot is already there in ppts already)
-    G. About Us &amp; Service should have following sections:
-       i.     AI Junior &amp; Robotics
-      ii.     AI Professional &amp; IT
-     iii.     Other Swim lanes (You may want to avoid this for now)
-2. Antech to develop https://www.google.business.anodiam.site using above components
-3. Ensure we have a button to:
-    A. download anodiam app from google playstore if anodiam app is not already installed
-    B. Use onclick event of same button to open anodiam app if it is already installed
-4. Test the responsiveness of https://www.google.business.sample.site
-5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
-  </si>
-  <si>
     <t>Sent mail to class plus. Waiting for reply.</t>
   </si>
   <si>
@@ -535,6 +502,9 @@
   </si>
   <si>
     <t>Ensure we have a button to Use onclick event of same button to open anodiam app if it is already installed</t>
+  </si>
+  <si>
+    <t>Design the corresponding components for https://www.google.business.anodiam.site</t>
   </si>
 </sst>
 </file>
@@ -998,24 +968,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="92.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1039,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1061,12 +1031,12 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>91</v>
@@ -1083,12 +1053,12 @@
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>91</v>
@@ -1105,12 +1075,12 @@
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>91</v>
@@ -1127,7 +1097,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1149,12 +1119,12 @@
       <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>91</v>
@@ -1171,7 +1141,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1193,7 +1163,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="262.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1213,44 +1183,46 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E11" s="12">
         <v>5</v>
@@ -1258,50 +1230,48 @@
       <c r="F11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>134</v>
+      <c r="G11" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>31</v>
+      <c r="B12" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E12" s="12">
         <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>93</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>126</v>
+      <c r="B13" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12">
         <v>4</v>
-      </c>
-      <c r="E13" s="12">
-        <v>5</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>5</v>
@@ -1309,109 +1279,111 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>127</v>
+      <c r="B14" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>104</v>
+      <c r="B15" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>135</v>
+      <c r="B16" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E16" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>113</v>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="12">
         <v>3</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>112</v>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>11</v>
@@ -1420,86 +1392,82 @@
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>109</v>
-      </c>
+      <c r="B21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1523,7 +1491,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1547,12 +1515,12 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>92</v>
@@ -1569,7 +1537,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1589,16 +1557,16 @@
         <v>115</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>92</v>
@@ -1615,12 +1583,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>91</v>
@@ -1635,16 +1603,16 @@
         <v>115</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>91</v>
@@ -1659,16 +1627,16 @@
         <v>115</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>91</v>
@@ -1683,11 +1651,11 @@
         <v>115</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1709,7 +1677,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1729,16 +1697,16 @@
         <v>115</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>92</v>
@@ -1779,22 +1747,22 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -1815,12 +1783,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>91</v>
@@ -1836,12 +1804,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>91</v>
@@ -1857,12 +1825,12 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -1878,12 +1846,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -1899,12 +1867,12 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -1920,12 +1888,12 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -1941,12 +1909,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -1962,12 +1930,12 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>91</v>
@@ -1983,12 +1951,12 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>91</v>
@@ -2004,12 +1972,12 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -2025,12 +1993,12 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>91</v>
@@ -2046,12 +2014,12 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>91</v>
@@ -2067,12 +2035,12 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>91</v>
@@ -2109,16 +2077,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.53125" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2141,18 +2109,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2161,18 +2129,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2181,18 +2149,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2201,18 +2169,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2221,18 +2189,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2241,18 +2209,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2285,26 +2253,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2313,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2333,7 +2301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2353,7 +2321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2373,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2393,7 +2361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2413,7 +2381,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2433,7 +2401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2444,7 +2412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2455,7 +2423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2466,7 +2434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2477,7 +2445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2488,7 +2456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2499,7 +2467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2510,7 +2478,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2521,7 +2489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2532,7 +2500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2543,7 +2511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2554,7 +2522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2565,7 +2533,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2576,7 +2544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2587,7 +2555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2598,7 +2566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2609,7 +2577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2620,7 +2588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2631,7 +2599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2642,7 +2610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2653,7 +2621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2664,7 +2632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2675,7 +2643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2686,7 +2654,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2697,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2708,7 +2676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2719,7 +2687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2730,7 +2698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2741,7 +2709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2752,7 +2720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2763,7 +2731,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2774,7 +2742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2785,7 +2753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2796,7 +2764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2807,7 +2775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2818,7 +2786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2829,7 +2797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2840,7 +2808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2851,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2862,7 +2830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2873,7 +2841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2884,7 +2852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2895,7 +2863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2906,7 +2874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2917,7 +2885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2928,7 +2896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2939,7 +2907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2963,18 +2931,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3000,7 +2968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +2994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3052,7 +3020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -3078,7 +3046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79182EC-1426-4292-A3F2-8AB6DEE5FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0FA97-3D27-4D6A-B1A6-A0AA387A47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
     <sheet name="MockTest" sheetId="3" r:id="rId4"/>
     <sheet name="WorkDays" sheetId="2" r:id="rId5"/>
+    <sheet name="Notes" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$32</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="178">
   <si>
     <t>Item Number</t>
   </si>
@@ -505,6 +506,57 @@
   </si>
   <si>
     <t>Design the corresponding components for https://www.google.business.anodiam.site</t>
+  </si>
+  <si>
+    <t>1. Design the corresponding components for https://www.google.business.anodiam.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A. Images &amp; Logos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B. Videos, Youtube content. Create an youtube channel and start putting in our contents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C. Fonts (Oxygen) and font sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D. Color schemes (RGBA values) of each component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    E. Hyperlinks and Button Click Events including whatsapp integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    F. Texts and headings (verbose properly / a lot is already there in ppts already)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    G. About Us &amp; Service should have following sections:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       i.     AI Junior &amp; Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ii.     AI Professional &amp; IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     iii.     Other Swim lanes (You may want to avoid this for now)</t>
+  </si>
+  <si>
+    <t>2. Antech to develop https://www.google.business.anodiam.site using above components</t>
+  </si>
+  <si>
+    <t>3. Ensure we have a button to:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A. download anodiam app from google playstore if anodiam app is not already installed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B. Use onclick event of same button to open anodiam app if it is already installed</t>
+  </si>
+  <si>
+    <t>4. Test the responsiveness of https://www.google.business.sample.site</t>
+  </si>
+  <si>
+    <t>5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
   </si>
 </sst>
 </file>
@@ -963,27 +1015,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="92.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -1009,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1031,7 +1082,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1053,7 +1104,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1075,7 +1126,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1097,7 +1148,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1119,7 +1170,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1141,7 +1192,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1163,7 +1214,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1174,7 +1225,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E9" s="12">
         <v>5</v>
@@ -1187,7 +1238,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1211,7 +1262,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1235,7 +1286,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1257,7 +1308,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1279,7 +1330,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1290,7 +1341,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E14" s="12">
         <v>5</v>
@@ -1303,7 +1354,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1327,7 +1378,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1351,7 +1402,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1375,7 +1426,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1399,7 +1450,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1423,7 +1474,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1445,7 +1496,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1467,7 +1518,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1491,7 +1542,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1515,7 +1566,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1537,7 +1588,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1561,7 +1612,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1583,7 +1634,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1607,7 +1658,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1631,7 +1682,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1655,7 +1706,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1677,7 +1728,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1701,7 +1752,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1723,13 +1774,7 @@
       <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sayan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1750,17 +1795,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>146</v>
       </c>
@@ -1783,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -1804,7 +1849,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -1825,7 +1870,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -1846,7 +1891,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -1867,7 +1912,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -1888,7 +1933,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1909,7 +1954,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -1930,7 +1975,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -1951,7 +1996,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -1972,7 +2017,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -1993,7 +2038,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2014,7 +2059,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2035,7 +2080,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2077,16 +2122,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.53125" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2129,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2149,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2189,7 +2234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2209,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2253,15 +2298,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -2281,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2301,7 +2346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2321,7 +2366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2341,7 +2386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2361,7 +2406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2381,7 +2426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2412,7 +2457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2423,7 +2468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2445,7 +2490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2456,7 +2501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2467,7 +2512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2478,7 +2523,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2489,7 +2534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2500,7 +2545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2511,7 +2556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2522,7 +2567,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2533,7 +2578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2544,7 +2589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2555,7 +2600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2566,7 +2611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2577,7 +2622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2588,7 +2633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2599,7 +2644,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2610,7 +2655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2621,7 +2666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2643,7 +2688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2654,7 +2699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2665,7 +2710,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2687,7 +2732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2698,7 +2743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2709,7 +2754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2720,7 +2765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2731,7 +2776,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2742,7 +2787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2753,7 +2798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2764,7 +2809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2775,7 +2820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2786,7 +2831,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2797,7 +2842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2808,7 +2853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2819,7 +2864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2830,7 +2875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2841,7 +2886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2852,7 +2897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2863,7 +2908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2874,7 +2919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2885,7 +2930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2896,7 +2941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2907,7 +2952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2931,18 +2976,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2968,7 +3013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2994,7 +3039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3072,7 +3117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
@@ -3096,6 +3141,109 @@
       </c>
       <c r="I7" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB55A01-CD93-4C19-B1C0-E6F51CBE4474}">
+  <dimension ref="C2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0FA97-3D27-4D6A-B1A6-A0AA387A47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DCAF34-714E-42DB-B2AC-14D2AB447854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,12 +628,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -698,7 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,10 +700,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,19 +1013,19 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1086,44 +1081,44 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,22 +1191,22 @@
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1290,7 +1285,7 @@
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1312,7 +1307,7 @@
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1358,7 +1353,7 @@
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1382,7 +1377,7 @@
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1406,7 +1401,7 @@
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1430,7 +1425,7 @@
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1454,7 +1449,7 @@
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1478,7 +1473,7 @@
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1585,7 +1580,7 @@
       <c r="F24" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1607,7 +1602,7 @@
       <c r="F25" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>129</v>
       </c>
       <c r="H25" s="3"/>
@@ -1616,44 +1611,44 @@
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="17">
-        <v>5</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="16">
+        <v>5</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="17">
-        <v>5</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>123</v>
       </c>
       <c r="H27" s="3"/>
@@ -1662,22 +1657,22 @@
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="17">
-        <v>5</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="16">
+        <v>5</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>123</v>
       </c>
       <c r="H28" s="3"/>
@@ -1686,22 +1681,22 @@
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="17">
-        <v>5</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="3"/>
@@ -1710,44 +1705,44 @@
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>3</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="17">
-        <v>5</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="16">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H31" s="3"/>
@@ -1756,7 +1751,7 @@
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -1806,30 +1801,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1850,7 +1845,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1871,7 +1866,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1892,7 +1887,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1913,7 +1908,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1934,7 +1929,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1955,7 +1950,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1976,10 +1971,10 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1997,10 +1992,10 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2018,7 +2013,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2039,7 +2034,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2060,7 +2055,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2081,7 +2076,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2118,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DCAF34-714E-42DB-B2AC-14D2AB447854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C01CFC-E491-42DF-BE07-28FA6896B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="179">
   <si>
     <t>Item Number</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
+  </si>
+  <si>
+    <t>Given Avishek to review 16 chapters of Maths. After positive feedback course will be uploaded.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,8 +707,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,11 +1011,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1077,7 +1079,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1099,7 +1101,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1121,7 +1123,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1143,7 +1145,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1165,7 +1167,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1187,7 +1189,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1209,7 +1211,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1257,7 +1259,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1281,11 +1283,11 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1307,7 +1309,7 @@
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1320,12 +1322,14 @@
         <v>4</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1349,7 +1353,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1373,7 +1377,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1397,11 +1401,11 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1421,11 +1425,11 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1445,7 +1449,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1469,7 +1473,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1491,7 +1495,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1701,7 +1705,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1747,11 +1751,11 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -1769,7 +1773,13 @@
       <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C01CFC-E491-42DF-BE07-28FA6896B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24494116-E5FD-4B93-9676-2B86F4F9EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="Notes" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="181">
   <si>
     <t>Item Number</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Ask Classplus about the URL / hyperlink for anodiam web app login / register</t>
   </si>
   <si>
-    <t>Digital Marketing</t>
-  </si>
-  <si>
     <t>To start in Feb 4th week</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>Sent mail to class plus. Waiting for reply.</t>
   </si>
   <si>
-    <t>Create events at meetup app or https://www.townscript.com/</t>
-  </si>
-  <si>
     <t>Publish purchased course materials on Anodiam platform</t>
   </si>
   <si>
@@ -560,13 +554,25 @@
   </si>
   <si>
     <t>Given Avishek to review 16 chapters of Maths. After positive feedback course will be uploaded.</t>
+  </si>
+  <si>
+    <t>Google calander Training for team</t>
+  </si>
+  <si>
+    <t>Create events at meetup app or https://www.townscript.com/ or FB Events</t>
+  </si>
+  <si>
+    <t>Training to Create Gmail groups</t>
+  </si>
+  <si>
+    <t>Create Password Protected Payout Slips for January For All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +608,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,13 +644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -688,13 +720,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -703,10 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,775 +1048,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.73046875" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="50.265625" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
-        <v>5</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="E2" s="11">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="14"/>
+      <c r="B3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="14"/>
+      <c r="B8" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>132</v>
+      <c r="G10" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="B11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>93</v>
+      <c r="G11" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="B12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>4</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
-        <v>5</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>143</v>
+      <c r="G15" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>111</v>
+      <c r="G16" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>101</v>
+      <c r="F17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="B18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="F18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="14">
-        <v>5</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="14"/>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="14"/>
+      <c r="B21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="14">
-        <v>5</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="B22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="14">
-        <v>5</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="B23" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="13"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="14">
-        <v>5</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="17"/>
+      <c r="E24" s="13">
+        <v>5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14">
-        <v>5</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>129</v>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="16">
-        <v>5</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="E26" s="13">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="B27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="16">
-        <v>5</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>123</v>
+      <c r="E27" s="13">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="16">
-        <v>5</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="C28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="16">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="B29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="16">
-        <v>3</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="16">
-        <v>5</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>130</v>
+      <c r="E31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="14">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3"/>
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1800,45 +1896,45 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>91</v>
@@ -1854,12 +1950,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>91</v>
@@ -1875,12 +1971,12 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -1896,12 +1992,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -1917,12 +2013,12 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -1938,12 +2034,12 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -1959,12 +2055,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -1980,12 +2076,12 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>156</v>
+      <c r="B9" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>91</v>
@@ -2001,12 +2097,12 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>157</v>
+      <c r="B10" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>91</v>
@@ -2022,12 +2118,12 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -2043,12 +2139,12 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>91</v>
@@ -2064,12 +2160,12 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>91</v>
@@ -2085,12 +2181,12 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>91</v>
@@ -2127,16 +2223,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.53125" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2159,18 +2255,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2179,18 +2275,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2199,18 +2295,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2219,18 +2315,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2239,18 +2335,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2259,18 +2355,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2303,26 +2399,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2331,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2351,7 +2447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2371,7 +2467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2391,7 +2487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2411,7 +2507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2431,7 +2527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2451,7 +2547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2462,7 +2558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2473,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2484,7 +2580,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2495,7 +2591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2506,7 +2602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2517,7 +2613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2528,7 +2624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2539,7 +2635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2550,7 +2646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2561,7 +2657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2572,7 +2668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2583,7 +2679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2594,7 +2690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2605,7 +2701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2616,7 +2712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2627,7 +2723,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2638,7 +2734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2649,7 +2745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2660,7 +2756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2671,7 +2767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2693,7 +2789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2704,7 +2800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2715,7 +2811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2726,7 +2822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2737,7 +2833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2748,7 +2844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2759,7 +2855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2770,7 +2866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2781,7 +2877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2792,7 +2888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2803,7 +2899,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2814,7 +2910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2825,7 +2921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2836,7 +2932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2847,7 +2943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2858,7 +2954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2869,7 +2965,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2880,7 +2976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2891,7 +2987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2902,7 +2998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2913,7 +3009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2924,7 +3020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2935,7 +3031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2946,7 +3042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2957,7 +3053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2981,18 +3077,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3018,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -3044,7 +3140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3070,7 +3166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3122,7 +3218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
@@ -3161,94 +3257,94 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24494116-E5FD-4B93-9676-2B86F4F9EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41BD2AC-CB6F-491B-B8B8-A17AF80B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,9 +415,6 @@
     <t>Conduct Internal Assessment Test BBA</t>
   </si>
   <si>
-    <t>Talk to Anupam sir for Internal monthly tests &amp; Give positive feedback about specific improvement path</t>
-  </si>
-  <si>
     <t>CRM calls: Just dial to Urban Pro</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>Ensure we have a button to Use onclick event of same button to open anodiam app if it is already installed</t>
   </si>
   <si>
-    <t>Design the corresponding components for https://www.google.business.anodiam.site</t>
-  </si>
-  <si>
     <t>1. Design the corresponding components for https://www.google.business.anodiam.site</t>
   </si>
   <si>
@@ -566,6 +560,12 @@
   </si>
   <si>
     <t>Create Password Protected Payout Slips for January For All</t>
+  </si>
+  <si>
+    <t>Debasish Da to Visit on Monday</t>
+  </si>
+  <si>
+    <t>Test yo be conducted on 29-Jan</t>
   </si>
 </sst>
 </file>
@@ -721,9 +721,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -743,6 +740,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,11 +1048,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1068,28 +1069,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1097,7 +1098,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1115,17 +1116,17 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="11">
@@ -1137,11 +1138,11 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1159,11 +1160,11 @@
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1181,18 +1182,18 @@
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>177</v>
+      <c r="B6" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>35</v>
+      <c r="D6" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="11">
         <v>5</v>
@@ -1203,18 +1204,18 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>179</v>
+      <c r="B7" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>11</v>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="11">
         <v>5</v>
@@ -1225,18 +1226,18 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>178</v>
+      <c r="B8" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>35</v>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="11">
         <v>5</v>
@@ -1247,11 +1248,11 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1263,23 +1264,23 @@
       <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="11">
@@ -1288,8 +1289,8 @@
       <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>158</v>
+      <c r="G10" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1297,13 +1298,13 @@
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>131</v>
+      <c r="B11" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="11">
@@ -1313,15 +1314,15 @@
         <v>8</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1336,16 +1337,16 @@
       <c r="F12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>130</v>
+      <c r="G12" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1361,16 +1362,16 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>92</v>
@@ -1386,11 +1387,11 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1406,15 +1407,15 @@
         <v>8</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1434,11 +1435,11 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1450,7 +1451,7 @@
       <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>114</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -1458,29 +1459,29 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>180</v>
+      <c r="B18" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1504,11 +1505,11 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1532,7 +1533,7 @@
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1552,140 +1553,140 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="13">
-        <v>5</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="12">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13">
-        <v>5</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="12">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="13">
-        <v>5</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="12">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>109</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13">
-        <v>5</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="12">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="13">
-        <v>5</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="13">
-        <v>5</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="12">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="H27" s="3"/>
@@ -1694,136 +1695,136 @@
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="13">
-        <v>5</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="12">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="13">
-        <v>5</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="12">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="14">
-        <v>5</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="13">
+        <v>5</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="14">
-        <v>5</v>
-      </c>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="13">
+        <v>5</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="14">
-        <v>5</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="13">
+        <v>5</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="14">
-        <v>5</v>
-      </c>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="13">
+        <v>5</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>122</v>
       </c>
       <c r="H33" s="3"/>
@@ -1832,50 +1833,56 @@
       <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>3</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="14">
-        <v>5</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="13">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>128</v>
       </c>
       <c r="H35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Rahul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1907,34 +1914,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>91</v>
@@ -1951,11 +1958,11 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>91</v>
@@ -1972,11 +1979,11 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -1993,11 +2000,11 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -2014,11 +2021,11 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -2035,11 +2042,11 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -2056,11 +2063,11 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -2077,11 +2084,11 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>154</v>
+      <c r="B9" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>91</v>
@@ -2098,11 +2105,11 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>155</v>
+      <c r="B10" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>91</v>
@@ -2119,11 +2126,11 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -2140,11 +2147,11 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>91</v>
@@ -2161,11 +2168,11 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>91</v>
@@ -2182,11 +2189,11 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>91</v>
@@ -2260,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2280,13 +2287,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2300,13 +2307,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2320,13 +2327,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2340,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2360,13 +2367,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2409,16 +2416,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3264,87 +3271,87 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41BD2AC-CB6F-491B-B8B8-A17AF80B3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65D55D-0D3F-4739-89C8-9F51BD6377C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -562,10 +562,10 @@
     <t>Create Password Protected Payout Slips for January For All</t>
   </si>
   <si>
-    <t>Debasish Da to Visit on Monday</t>
-  </si>
-  <si>
-    <t>Test yo be conducted on 29-Jan</t>
+    <t>Debasish Da and Sayan to Visit on Tuesday (16th January 2024)</t>
+  </si>
+  <si>
+    <t>Test to be conducted on 29-Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -1053,22 +1053,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.73046875" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.265625" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E3" s="11">
         <v>5</v>
@@ -1138,7 +1138,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1386,8 +1386,9 @@
         <v>5</v>
       </c>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1411,7 +1412,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1435,7 +1436,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1505,7 +1506,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1529,7 +1530,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1553,7 +1554,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1575,7 +1576,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1597,7 +1598,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1621,7 +1622,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1645,7 +1646,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1691,7 +1692,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1735,7 +1736,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1781,7 +1782,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1805,7 +1806,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1829,7 +1830,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1879,7 +1880,7 @@
   <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Rahul"/>
+        <filter val="Debashish"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1903,17 +1904,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>143</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1978,7 +1979,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1999,7 +2000,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2041,7 +2042,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2062,7 +2063,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2083,7 +2084,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2104,7 +2105,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2125,7 +2126,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2146,7 +2147,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2167,7 +2168,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2188,7 +2189,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2230,16 +2231,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.53125" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2406,15 +2407,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>143</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3084,18 +3085,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
@@ -3264,92 +3265,92 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>173</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65D55D-0D3F-4739-89C8-9F51BD6377C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B36576-2F1B-4A18-AAA1-95693D3F72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="181">
-  <si>
-    <t>Item Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="180">
   <si>
     <t>Item Description</t>
   </si>
@@ -1048,12 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,202 +1066,202 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="11">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="11">
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11">
         <v>5</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11">
         <v>5</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="11">
         <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11">
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11">
         <v>5</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
@@ -1275,46 +1271,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="11">
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="11">
         <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1323,22 +1319,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1347,116 +1343,116 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="11">
         <v>4</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="11">
         <v>4</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="11">
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11">
         <v>4</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1465,135 +1461,135 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11">
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="11">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="11">
         <v>2</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12">
         <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
@@ -1603,22 +1599,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="12">
         <v>5</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1627,22 +1623,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="12">
         <v>5</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1651,19 +1647,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="12">
         <v>5</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
@@ -1673,65 +1669,65 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="12">
         <v>5</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="12">
         <v>5</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="12">
         <v>5</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
@@ -1741,19 +1737,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="13">
         <v>5</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="3"/>
@@ -1763,22 +1759,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="13">
         <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1787,22 +1783,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="13">
         <v>5</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -1811,43 +1807,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="13">
+        <v>5</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="13">
-        <v>5</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="13">
         <v>3</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="3"/>
@@ -1857,33 +1853,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="13">
         <v>5</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1916,25 +1906,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1942,19 +1932,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -1963,19 +1953,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1984,19 +1974,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -2005,19 +1995,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -2026,19 +2016,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2047,19 +2037,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -2068,19 +2058,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -2089,19 +2079,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -2110,19 +2100,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -2131,19 +2121,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -2152,19 +2142,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -2173,19 +2163,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -2194,19 +2184,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -2227,161 +2217,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2417,22 +2415,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2440,19 +2438,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,19 +2458,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,19 +2478,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,19 +2498,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2520,19 +2518,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,19 +2538,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,10 +2558,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2571,10 +2569,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,10 +2580,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2593,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2604,10 +2602,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2615,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,10 +2624,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2637,10 +2635,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2659,10 +2657,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2670,10 +2668,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2681,10 +2679,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2692,10 +2690,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2703,10 +2701,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2714,10 +2712,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2725,10 +2723,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2736,10 +2734,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,10 +2745,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2758,10 +2756,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2769,10 +2767,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2780,10 +2778,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2791,10 +2789,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2802,10 +2800,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2813,10 +2811,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2824,10 +2822,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,10 +2833,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2846,10 +2844,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2857,10 +2855,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,10 +2866,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2879,10 +2877,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2890,10 +2888,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2901,10 +2899,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2912,10 +2910,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2923,10 +2921,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2934,10 +2932,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2945,10 +2943,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2956,10 +2954,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2967,10 +2965,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,10 +2976,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,10 +2987,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3000,10 +2998,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3011,10 +3009,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3022,10 +3020,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3033,10 +3031,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3044,10 +3042,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3055,10 +3053,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3066,10 +3064,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3098,158 +3096,158 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3272,87 +3270,87 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B36576-2F1B-4A18-AAA1-95693D3F72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D646439-8FCD-4CB0-A1F7-F13C21996130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -1047,16 +1047,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="53.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
@@ -2217,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D646439-8FCD-4CB0-A1F7-F13C21996130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E31033-E203-4540-80D6-66C28B3397D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="181">
   <si>
     <t>Item Description</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Conduct Internal Assessment Test BBA</t>
   </si>
   <si>
-    <t>CRM calls: Just dial to Urban Pro</t>
-  </si>
-  <si>
     <t>Opening Hours should be 10 AM to 7 PM.</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>5. Must have a button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
   </si>
   <si>
-    <t>Given Avishek to review 16 chapters of Maths. After positive feedback course will be uploaded.</t>
-  </si>
-  <si>
     <t>Google calander Training for team</t>
   </si>
   <si>
@@ -563,6 +557,15 @@
   </si>
   <si>
     <t>Test to be conducted on 29-Jan-2024</t>
+  </si>
+  <si>
+    <t>Rahul to give Bank A/c # &amp; IFSC</t>
+  </si>
+  <si>
+    <t>Avishek to give feedback on 16th Jan. Review 16 chapters of Maths. After positive feedback course will be uploaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
   </si>
 </sst>
 </file>
@@ -1045,28 +1048,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1090,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1112,7 +1116,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1134,7 +1138,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1156,7 +1160,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1178,12 +1182,12 @@
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>90</v>
@@ -1200,12 +1204,12 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>90</v>
@@ -1222,12 +1226,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>90</v>
@@ -1244,7 +1248,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1286,16 +1290,16 @@
         <v>7</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>93</v>
@@ -1304,17 +1308,17 @@
         <v>3</v>
       </c>
       <c r="E11" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1334,11 +1338,11 @@
         <v>7</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1358,16 +1362,16 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>91</v>
@@ -1384,7 +1388,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1404,11 +1408,11 @@
         <v>7</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1432,7 +1436,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1456,12 +1460,12 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>91</v>
@@ -1475,10 +1479,12 @@
       <c r="F18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1502,7 +1508,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1550,7 +1556,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1594,7 +1600,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1618,7 +1624,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1642,7 +1648,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1688,7 +1694,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1710,7 +1716,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1732,7 +1738,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1754,7 +1760,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1802,7 +1808,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1826,7 +1832,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1848,32 +1854,38 @@
       <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="13">
-        <v>5</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="D35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>127</v>
       </c>
       <c r="H35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sayan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1894,19 +1906,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1927,12 +1939,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>90</v>
@@ -1948,12 +1960,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>90</v>
@@ -1969,12 +1981,12 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>90</v>
@@ -1990,12 +2002,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>90</v>
@@ -2011,12 +2023,12 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>90</v>
@@ -2032,12 +2044,12 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>90</v>
@@ -2053,12 +2065,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>90</v>
@@ -2074,12 +2086,12 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>90</v>
@@ -2095,12 +2107,12 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>90</v>
@@ -2116,12 +2128,12 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>90</v>
@@ -2137,12 +2149,12 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>90</v>
@@ -2158,12 +2170,12 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>90</v>
@@ -2179,12 +2191,12 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>90</v>
@@ -2221,20 +2233,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -2255,18 +2267,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2276,18 +2288,18 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2297,19 +2309,19 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
@@ -2318,39 +2330,39 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -2360,18 +2372,18 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -2405,26 +2417,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2433,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2674,7 +2686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2850,7 +2862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2883,7 +2895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3083,18 +3095,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
@@ -3263,94 +3275,94 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E31033-E203-4540-80D6-66C28B3397D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A2596-FFD8-40D1-B198-67BD3A13AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="182">
   <si>
     <t>Item Description</t>
   </si>
@@ -67,9 +78,6 @@
     <t>Reel Plan (AI Ad)</t>
   </si>
   <si>
-    <t>Google Anttech Photoshhot</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
@@ -566,6 +574,12 @@
   </si>
   <si>
     <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
+  </si>
+  <si>
+    <t>Google Anttech Queries</t>
+  </si>
+  <si>
+    <t>We need to call Anttech to resolve issues</t>
   </si>
 </sst>
 </file>
@@ -700,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -744,6 +758,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,41 +1063,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>2</v>
@@ -1094,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -1116,15 +1130,15 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>3</v>
@@ -1138,15 +1152,15 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>9</v>
@@ -1160,15 +1174,15 @@
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -1182,15 +1196,15 @@
       <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>9</v>
@@ -1204,15 +1218,15 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>9</v>
@@ -1226,15 +1240,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>9</v>
@@ -1248,15 +1262,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>9</v>
@@ -1264,24 +1278,26 @@
       <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11">
         <v>5</v>
@@ -1290,19 +1306,19 @@
         <v>7</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>3</v>
@@ -1314,22 +1330,22 @@
         <v>7</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
@@ -1338,22 +1354,22 @@
         <v>7</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="11">
         <v>4</v>
@@ -1362,19 +1378,19 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>9</v>
@@ -1388,15 +1404,15 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>9</v>
@@ -1408,19 +1424,19 @@
         <v>7</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>10</v>
@@ -1432,19 +1448,19 @@
         <v>7</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>10</v>
@@ -1453,25 +1469,25 @@
         <v>3</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
@@ -1480,11 +1496,11 @@
         <v>7</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>10</v>
@@ -1504,11 +1520,11 @@
         <v>4</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1516,7 +1532,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>10</v>
@@ -1528,11 +1544,11 @@
         <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>3</v>
@@ -1552,19 +1568,19 @@
         <v>7</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>10</v>
@@ -1573,20 +1589,20 @@
         <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>10</v>
@@ -1595,114 +1611,114 @@
         <v>5</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="12">
         <v>5</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="12">
         <v>5</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="12">
         <v>5</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="12">
         <v>5</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>3</v>
@@ -1711,20 +1727,20 @@
         <v>5</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>9</v>
@@ -1733,114 +1749,114 @@
         <v>5</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="13">
         <v>5</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="13">
         <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="13">
         <v>5</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="13">
+        <v>5</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="13">
-        <v>5</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>3</v>
@@ -1849,20 +1865,20 @@
         <v>3</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>3</v>
@@ -1874,18 +1890,12 @@
         <v>7</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sayan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1906,31 +1916,31 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -1939,15 +1949,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1960,15 +1970,15 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -1981,15 +1991,15 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -2002,15 +2012,15 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -2023,15 +2033,15 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -2044,15 +2054,15 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -2065,15 +2075,15 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -2086,15 +2096,15 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -2107,15 +2117,15 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -2128,15 +2138,15 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -2149,15 +2159,15 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -2170,15 +2180,15 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -2191,15 +2201,15 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -2230,35 +2240,35 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -2267,18 +2277,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2288,18 +2298,18 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2309,19 +2319,19 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
@@ -2330,39 +2340,39 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -2372,18 +2382,18 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -2417,26 +2427,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2445,35 +2455,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2482,18 +2492,18 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2502,18 +2512,18 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2522,38 +2532,38 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -2562,524 +2572,524 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3095,171 +3105,171 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3275,94 +3285,94 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A2596-FFD8-40D1-B198-67BD3A13AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE13D1A-1BF9-41A1-9176-7A0290BA4AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -16,25 +16,14 @@
     <sheet name="Notes" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
   <si>
     <t>Item Description</t>
   </si>
@@ -432,9 +421,6 @@
     <t>In Appointments: wa.me area, there should be whats app icon.</t>
   </si>
   <si>
-    <t>There is no place for giving review comments</t>
-  </si>
-  <si>
     <t>On pressing Website button the page should redirect to google.anodiam.mybusiness.site</t>
   </si>
   <si>
@@ -580,6 +566,12 @@
   </si>
   <si>
     <t>We need to call Anttech to resolve issues</t>
+  </si>
+  <si>
+    <t>Get some 5 star reviews</t>
+  </si>
+  <si>
+    <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
   </si>
 </sst>
 </file>
@@ -631,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,12 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,14 +737,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,52 +1051,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="97.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1130,7 +1118,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1140,7 +1128,7 @@
       <c r="C3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="11">
@@ -1152,12 +1140,12 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>122</v>
+      <c r="B4" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>89</v>
@@ -1169,17 +1157,17 @@
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>89</v>
@@ -1193,10 +1181,10 @@
       <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1206,7 +1194,7 @@
       <c r="C6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="11">
@@ -1218,17 +1206,17 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="11">
@@ -1237,342 +1225,344 @@
       <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>172</v>
+      <c r="B8" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="11">
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>181</v>
+      <c r="G9" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>89</v>
+      <c r="B10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>175</v>
-      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>92</v>
+      <c r="B11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="21">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>134</v>
+      <c r="G11" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>176</v>
+      <c r="G12" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="F13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="B14" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>137</v>
+      <c r="G15" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>108</v>
+      <c r="G16" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="21">
         <v>3</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>91</v>
+      <c r="F17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>90</v>
+      <c r="B18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21">
         <v>3</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>177</v>
+        <v>4</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="B19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>99</v>
+      <c r="E19" s="21">
+        <v>3</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="11">
+        <v>11</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>99</v>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12">
         <v>3</v>
       </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>106</v>
+      <c r="F21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1594,7 +1584,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1616,7 +1606,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1640,7 +1630,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1664,7 +1654,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1686,7 +1676,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1710,7 +1700,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1732,7 +1722,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1754,61 +1744,59 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="13">
-        <v>5</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="B30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="13">
-        <v>5</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="B31" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12">
+        <v>5</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="G31" s="12"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>33</v>
@@ -1819,17 +1807,15 @@
       <c r="F32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>89</v>
@@ -1848,54 +1834,78 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E34" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="13">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="13">
         <v>3</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="F36" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1916,19 +1926,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1949,12 +1959,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>89</v>
@@ -1970,12 +1980,12 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -1991,12 +2001,12 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>89</v>
@@ -2012,12 +2022,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>89</v>
@@ -2033,12 +2043,12 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>89</v>
@@ -2054,12 +2064,12 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>89</v>
@@ -2075,12 +2085,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>89</v>
@@ -2096,12 +2106,12 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>89</v>
@@ -2117,12 +2127,12 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>89</v>
@@ -2138,12 +2148,12 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>89</v>
@@ -2159,12 +2169,12 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>89</v>
@@ -2180,12 +2190,12 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>89</v>
@@ -2201,12 +2211,12 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>89</v>
@@ -2240,23 +2250,23 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -2277,96 +2287,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="14">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="14">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="20">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>89</v>
@@ -2378,16 +2388,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>89</v>
@@ -2427,26 +2437,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2455,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2495,7 +2505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2555,7 +2565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2575,7 +2585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2586,7 +2596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2597,7 +2607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2608,7 +2618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2619,7 +2629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2630,7 +2640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2663,7 +2673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2674,7 +2684,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2685,7 +2695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2707,7 +2717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2762,7 +2772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2773,7 +2783,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2784,7 +2794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2828,7 +2838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2850,7 +2860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2894,7 +2904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2927,7 +2937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2938,7 +2948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2949,7 +2959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2982,7 +2992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3037,7 +3047,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3059,7 +3069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3070,7 +3080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3081,7 +3091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3105,18 +3115,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3220,7 +3230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -3246,7 +3256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3285,94 +3295,94 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE13D1A-1BF9-41A1-9176-7A0290BA4AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F3F92-74DA-431A-AF6E-E020C1E626DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -547,18 +547,9 @@
     <t>Create Password Protected Payout Slips for January For All</t>
   </si>
   <si>
-    <t>Debasish Da and Sayan to Visit on Tuesday (16th January 2024)</t>
-  </si>
-  <si>
     <t>Test to be conducted on 29-Jan-2024</t>
   </si>
   <si>
-    <t>Rahul to give Bank A/c # &amp; IFSC</t>
-  </si>
-  <si>
-    <t>Avishek to give feedback on 16th Jan. Review 16 chapters of Maths. After positive feedback course will be uploaded.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
   </si>
   <si>
@@ -572,6 +563,15 @@
   </si>
   <si>
     <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
+  </si>
+  <si>
+    <t>Rahul to give Bank A/c # &amp; IFSC. Sayan got the pay slip.</t>
+  </si>
+  <si>
+    <t>Anttech will deliver website on 23rd Jan 2024.</t>
+  </si>
+  <si>
+    <t>Avishek to give feedback on Science chapters. After that Science for Std 8 will be uploaded.</t>
   </si>
 </sst>
 </file>
@@ -1051,26 +1051,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>139</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1140,7 +1141,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1162,7 +1163,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1184,7 +1185,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1206,12 +1207,12 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>89</v>
@@ -1226,11 +1227,11 @@
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1250,11 +1251,11 @@
         <v>7</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1273,12 +1274,12 @@
       <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>177</v>
+      <c r="G9" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1300,7 +1301,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1324,7 +1325,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1348,12 +1349,12 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>90</v>
@@ -1370,12 +1371,12 @@
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>92</v>
@@ -1394,7 +1395,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1414,11 +1415,11 @@
         <v>7</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1438,11 +1439,11 @@
         <v>7</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1466,7 +1467,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1490,7 +1491,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1514,7 +1515,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1538,7 +1539,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1562,7 +1563,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1584,7 +1585,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1630,7 +1631,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1654,7 +1655,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1722,7 +1723,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1744,7 +1745,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1766,7 +1767,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1810,7 +1811,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1834,7 +1835,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1858,7 +1859,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1882,7 +1883,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1905,7 +1906,13 @@
       <c r="H36" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1926,17 +1933,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>139</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1980,7 +1987,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2001,7 +2008,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2022,7 +2029,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2043,7 +2050,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2064,7 +2071,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2085,7 +2092,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2106,7 +2113,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2127,7 +2134,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2148,7 +2155,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2169,7 +2176,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2190,7 +2197,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2211,7 +2218,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2253,18 +2260,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>139</v>
       </c>
@@ -2287,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2308,7 +2315,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2329,7 +2336,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2350,7 +2357,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2371,12 +2378,12 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>89</v>
@@ -2392,7 +2399,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2437,15 +2444,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2565,7 +2572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2607,7 +2614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2618,7 +2625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2640,7 +2647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2651,7 +2658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2673,7 +2680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2695,7 +2702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2728,7 +2735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2750,7 +2757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2761,7 +2768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2794,7 +2801,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2805,7 +2812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2827,7 +2834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2849,7 +2856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2882,7 +2889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2959,7 +2966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2970,7 +2977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2981,7 +2988,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2992,7 +2999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3003,7 +3010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3014,7 +3021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3115,18 +3122,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3295,92 +3302,92 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>169</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F3F92-74DA-431A-AF6E-E020C1E626DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1647EA-9850-436B-8FA6-BEF6CD356D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1647EA-9850-436B-8FA6-BEF6CD356D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4CFE2-D061-4840-9B68-C7E16B0F1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,9 +544,6 @@
     <t>Training to Create Gmail groups</t>
   </si>
   <si>
-    <t>Create Password Protected Payout Slips for January For All</t>
-  </si>
-  <si>
     <t>Test to be conducted on 29-Jan-2024</t>
   </si>
   <si>
@@ -565,13 +562,16 @@
     <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
   </si>
   <si>
-    <t>Rahul to give Bank A/c # &amp; IFSC. Sayan got the pay slip.</t>
-  </si>
-  <si>
     <t>Anttech will deliver website on 23rd Jan 2024.</t>
   </si>
   <si>
-    <t>Avishek to give feedback on Science chapters. After that Science for Std 8 will be uploaded.</t>
+    <t>Need Bank A/c # &amp; IFSC for Rahul to generate payslip</t>
+  </si>
+  <si>
+    <t>Uploaded course materials of Maths and Science for Std VIII. Maths for Std IX.</t>
+  </si>
+  <si>
+    <t>Urgent requirement as it is pending for nearly 7 days.</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>89</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>90</v>
@@ -1376,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>92</v>
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1424,13 +1424,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E16" s="21">
         <v>3</v>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>89</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4CFE2-D061-4840-9B68-C7E16B0F1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DB87F-1027-4570-AC2C-579E6286CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Notes" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="184">
   <si>
     <t>Item Description</t>
   </si>
@@ -572,6 +583,9 @@
   </si>
   <si>
     <t>Urgent requirement as it is pending for nearly 7 days.</t>
+  </si>
+  <si>
+    <t>Update description of status in AI marketing sheet</t>
   </si>
 </sst>
 </file>
@@ -1051,18 +1065,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
@@ -1097,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1119,7 +1132,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1141,7 +1154,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1163,7 +1176,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1185,7 +1198,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1207,7 +1220,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1279,7 +1292,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1301,7 +1314,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1325,7 +1338,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1349,7 +1362,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1371,7 +1384,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1443,7 +1456,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1467,7 +1480,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1491,7 +1504,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1515,7 +1528,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1539,7 +1552,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1563,7 +1576,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1585,7 +1598,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1701,7 +1714,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1723,7 +1736,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1745,7 +1758,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1767,7 +1780,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1883,7 +1896,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1905,14 +1918,29 @@
       <c r="G36" s="13"/>
       <c r="H36" s="3"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="21">
+        <v>5</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DB87F-1027-4570-AC2C-579E6286CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="185">
   <si>
     <t>Item Description</t>
   </si>
@@ -586,12 +585,28 @@
   </si>
   <si>
     <t>Update description of status in AI marketing sheet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search strings to be given to Anttech: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEET IIT institute in Kolkata - AI courses in Kolkata - IT Courses in Kolkata</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -710,11 +725,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -761,6 +796,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,9 +816,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -819,9 +856,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,7 +928,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1064,10 +1101,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -1940,12 +1977,12 @@
       <c r="G37" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H37"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F694DCE3-45FE-4850-A54A-8379FCD46E21}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{8C84AC62-5D87-4226-921A-1C47F6785021}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1954,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136D2009-10A6-4464-93EC-3A44F4732081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2269,10 +2306,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{227B3915-0C77-41D2-9640-7A55E9B16B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{C8A1565F-452C-4E23-AEF5-9AC39208582A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2281,17 +2318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E6E54B-2AD5-4B89-AEAC-D087C44BF4B1}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -2448,24 +2485,46 @@
       </c>
       <c r="G7" s="3"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{360E118C-F521-4CC7-8556-EFA9418D197E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A1101A09-0BF8-4916-A084-6A46F4BC7A80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"Marketing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{051203AA-A044-47B3-ADD5-39B3C5409E6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F24168E-DBD7-4361-AEEA-D57845BDFBC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,7 +3202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3323,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB55A01-CD93-4C19-B1C0-E6F51CBE4474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5100A08E-312A-49E6-9B04-14D9C057D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -572,13 +562,7 @@
     <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
   </si>
   <si>
-    <t>Anttech will deliver website on 23rd Jan 2024.</t>
-  </si>
-  <si>
     <t>Need Bank A/c # &amp; IFSC for Rahul to generate payslip</t>
-  </si>
-  <si>
-    <t>Uploaded course materials of Maths and Science for Std VIII. Maths for Std IX.</t>
   </si>
   <si>
     <t>Urgent requirement as it is pending for nearly 7 days.</t>
@@ -602,11 +586,17 @@
       <t>NEET IIT institute in Kolkata - AI courses in Kolkata - IT Courses in Kolkata</t>
     </r>
   </si>
+  <si>
+    <t>Anttech will deliver website on 30th Jan 2024.</t>
+  </si>
+  <si>
+    <t>Uploaded course materials of Maths and Science for Std VIII. Maths &amp; Biology for Std IX.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,9 +806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,9 +846,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1101,12 +1091,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1325,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1474,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>90</v>
@@ -1489,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1960,7 +1950,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>89</v>
@@ -1977,12 +1967,12 @@
       <c r="G37" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1991,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2306,10 +2296,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2318,11 +2308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>89</v>
@@ -2508,13 +2498,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Marketing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2524,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3202,7 +3192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5100A08E-312A-49E6-9B04-14D9C057D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8C30A-55B8-462D-9FC4-95564E6F2D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1092,11 +1103,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1159,7 +1171,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1181,7 +1193,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1203,7 +1215,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1225,7 +1237,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1247,7 +1259,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1319,7 +1331,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1341,7 +1353,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1365,7 +1377,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1389,7 +1401,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1411,7 +1423,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1459,7 +1471,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1483,7 +1495,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1507,7 +1519,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1531,7 +1543,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1555,7 +1567,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1579,7 +1591,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1603,7 +1615,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1625,7 +1637,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1741,7 +1753,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1785,7 +1797,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1807,7 +1819,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1923,7 +1935,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1949,25 +1961,31 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="21">
         <v>5</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="G37" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8C30A-55B8-462D-9FC4-95564E6F2D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB96B9-CF9D-4F22-A4E8-306A9B59B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -577,9 +566,6 @@
   </si>
   <si>
     <t>Urgent requirement as it is pending for nearly 7 days.</t>
-  </si>
-  <si>
-    <t>Update description of status in AI marketing sheet</t>
   </si>
   <si>
     <r>
@@ -602,6 +588,9 @@
   </si>
   <si>
     <t>Uploaded course materials of Maths and Science for Std VIII. Maths &amp; Biology for Std IX.</t>
+  </si>
+  <si>
+    <t>Update AI marketing sheet</t>
   </si>
 </sst>
 </file>
@@ -1106,24 +1095,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="97.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>139</v>
       </c>
@@ -1149,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1171,7 +1160,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1193,7 +1182,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1215,7 +1204,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1237,7 +1226,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1259,7 +1248,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1283,7 +1272,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1303,11 +1292,11 @@
         <v>7</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1327,11 +1316,11 @@
         <v>7</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1353,7 +1342,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1377,7 +1366,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1401,7 +1390,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1423,7 +1412,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1447,7 +1436,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1471,7 +1460,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1495,7 +1484,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1519,7 +1508,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1543,7 +1532,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1567,7 +1556,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1591,7 +1580,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1615,7 +1604,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1637,7 +1626,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1659,7 +1648,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1683,7 +1672,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1707,7 +1696,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1729,7 +1718,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1753,7 +1742,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1775,7 +1764,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1797,7 +1786,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1819,7 +1808,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1841,7 +1830,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1863,7 +1852,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1887,7 +1876,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1911,7 +1900,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1935,7 +1924,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1957,17 +1946,17 @@
       <c r="G36" s="13"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="B37" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="21">
@@ -2006,17 +1995,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>139</v>
       </c>
@@ -2039,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2060,7 +2049,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2081,7 +2070,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2102,7 +2091,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2123,7 +2112,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2144,7 +2133,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2165,7 +2154,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2186,7 +2175,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2207,7 +2196,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2228,7 +2217,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2249,7 +2238,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2270,7 +2259,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2291,7 +2280,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2333,18 +2322,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>139</v>
       </c>
@@ -2367,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2388,7 +2377,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2409,7 +2398,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2430,7 +2419,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2451,7 +2440,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2472,7 +2461,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2493,12 +2482,12 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>89</v>
@@ -2539,15 +2528,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -2567,7 +2556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2587,7 +2576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2607,7 +2596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2627,7 +2616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2647,7 +2636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2667,7 +2656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2687,7 +2676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2698,7 +2687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2709,7 +2698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2720,7 +2709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2731,7 +2720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2742,7 +2731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2753,7 +2742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2764,7 +2753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2775,7 +2764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2786,7 +2775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2797,7 +2786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2808,7 +2797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2819,7 +2808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2830,7 +2819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2841,7 +2830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2852,7 +2841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2863,7 +2852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2874,7 +2863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2896,7 +2885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2907,7 +2896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2918,7 +2907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2929,7 +2918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2940,7 +2929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2951,7 +2940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2962,7 +2951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2973,7 +2962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2984,7 +2973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2995,7 +2984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3006,7 +2995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3017,7 +3006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3028,7 +3017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3039,7 +3028,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3050,7 +3039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3061,7 +3050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3072,7 +3061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3083,7 +3072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3094,7 +3083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3105,7 +3094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3116,7 +3105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3138,7 +3127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3149,7 +3138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3160,7 +3149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3171,7 +3160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3182,7 +3171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3193,7 +3182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3217,18 +3206,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
@@ -3280,7 +3269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -3306,7 +3295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3332,7 +3321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -3358,7 +3347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3397,92 +3386,92 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>169</v>
       </c>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89E1F8-38CD-4011-BCC9-69D90E282DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD00D0-BEC5-42B1-8EC8-452A24EBC632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>On pressing Website button the page should redirect to google.anodiam.mybusiness.site</t>
-  </si>
-  <si>
-    <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com</t>
   </si>
   <si>
     <t>Publish AI course materials on Anodiam platform</t>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>Orange Header instead of black, while scrolling down</t>
+  </si>
+  <si>
+    <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com. After 5th Feb.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,8 +457,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,26 +765,26 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -809,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -831,7 +830,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -853,12 +852,12 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -875,12 +874,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -897,12 +896,12 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -919,12 +918,12 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -939,11 +938,11 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -963,11 +962,11 @@
         <v>7</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -987,16 +986,16 @@
         <v>7</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>18</v>
@@ -1013,7 +1012,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1033,11 +1032,11 @@
         <v>7</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1061,12 +1060,12 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>18</v>
@@ -1083,12 +1082,12 @@
       <c r="G13" s="17"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -1103,11 +1102,11 @@
         <v>7</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1127,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>18</v>
@@ -1151,11 +1150,11 @@
         <v>7</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1179,7 +1178,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1203,7 +1202,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1227,7 +1226,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1251,7 +1250,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1275,7 +1274,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1297,7 +1296,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1343,7 +1342,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1367,7 +1366,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1389,7 +1388,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1413,7 +1412,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1435,7 +1434,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1457,7 +1456,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1479,7 +1478,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1501,7 +1500,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1523,7 +1522,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1547,7 +1546,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1571,7 +1570,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1595,7 +1594,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1617,12 +1616,12 @@
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>17</v>
@@ -1666,20 +1665,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1700,12 +1699,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1742,12 +1741,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -1763,12 +1762,12 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -1784,12 +1783,12 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1805,12 +1804,12 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1826,12 +1825,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1847,12 +1846,12 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1868,12 +1867,12 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1889,12 +1888,12 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1910,12 +1909,12 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>82</v>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1931,12 +1930,12 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>80</v>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1952,12 +1951,12 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>81</v>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -1973,12 +1972,12 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>83</v>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1994,12 +1993,12 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>84</v>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -2015,34 +2014,34 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +2056,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2066,7 +2065,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2075,7 +2074,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2084,7 +2083,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD00D0-BEC5-42B1-8EC8-452A24EBC632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Antech-Issues" sheetId="4" r:id="rId2"/>
+    <sheet name="Proposal email" sheetId="5" r:id="rId2"/>
+    <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Item Description</t>
   </si>
@@ -317,11 +317,43 @@
   <si>
     <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com. After 5th Feb.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Omit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Free </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word from everywhere</t>
+    </r>
+  </si>
+  <si>
+    <t>Write full names of institutions</t>
+  </si>
+  <si>
+    <t>Shorten the body of emails</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,9 +508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,9 +548,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,7 +585,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,7 +620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,13 +793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -830,7 +861,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -942,7 +973,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -966,7 +997,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1036,7 +1067,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1082,7 +1113,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1106,7 +1137,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1130,7 +1161,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1154,7 +1185,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1178,7 +1209,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1202,7 +1233,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1226,7 +1257,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1250,7 +1281,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1274,7 +1305,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1296,7 +1327,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1318,7 +1349,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1342,7 +1373,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1366,7 +1397,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1388,7 +1419,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1412,7 +1443,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1500,7 +1531,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1522,7 +1553,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1546,7 +1577,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1570,7 +1601,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1594,7 +1625,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1616,7 +1647,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1638,18 +1669,11 @@
       <c r="G37" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sayan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1658,11 +1682,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 D1:D4">
+      <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C1048576">
+      <formula1>"Marketing"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,16 +2228,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C19:C1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C19:C1048576">
       <formula1>"Marketing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D1048576 D1:D4" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D1048576 D1:D4">
       <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{FE254812-5797-48EB-869C-080F6161EDDF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406836B6-2754-426C-A22A-65BC8684DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -12,14 +13,14 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
   <si>
     <t>Item Description</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Todo</t>
   </si>
   <si>
-    <t>Plan School Visits</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -105,9 +103,6 @@
     <t>Student fees collection report for December</t>
   </si>
   <si>
-    <t>Plan College Visits</t>
-  </si>
-  <si>
     <t>Batch start for Priyangsu Giri BBA Sem 1</t>
   </si>
   <si>
@@ -217,12 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
-  </si>
-  <si>
-    <t>Google Anttech Queries</t>
-  </si>
-  <si>
-    <t>We need to call Anttech to resolve issues</t>
   </si>
   <si>
     <t>Get some 5 star reviews</t>
@@ -257,9 +246,6 @@
   </si>
   <si>
     <t>Uploaded course materials of Maths and Science for Std VIII. Maths &amp; Biology for Std IX.</t>
-  </si>
-  <si>
-    <t>Update AI marketing sheet</t>
   </si>
   <si>
     <t>Must have a Login button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
@@ -349,11 +335,14 @@
   <si>
     <t>Shorten the body of emails</t>
   </si>
+  <si>
+    <t>Plan School and College Visits</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,9 +537,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,12 +782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,28 +804,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -844,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -856,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
@@ -865,42 +854,42 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
+      <c r="B3" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -909,20 +898,20 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>63</v>
+      <c r="B5" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -931,45 +920,47 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>62</v>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>67</v>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -977,24 +968,22 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1002,22 +991,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14">
         <v>4</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1026,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>9</v>
@@ -1038,9 +1027,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1048,46 +1039,44 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14">
         <v>4</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>34</v>
+      <c r="B12" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E12" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1095,33 +1084,35 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="14">
-        <v>4</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>65</v>
+      <c r="B14" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>3</v>
@@ -1130,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -1141,23 +1132,23 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
+      <c r="F15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1166,22 +1157,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1190,22 +1181,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="14">
         <v>3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1214,22 +1205,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E18" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1237,23 +1228,23 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14">
-        <v>3</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -1261,70 +1252,68 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>14</v>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5">
         <v>5</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1332,21 +1321,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="5">
         <v>5</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1354,23 +1345,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5">
         <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1378,22 +1367,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="5">
         <v>5</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1402,21 +1391,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,23 +1413,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5">
         <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1448,19 +1435,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28" s="5">
         <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
@@ -1470,19 +1457,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5">
         <v>5</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
@@ -1491,44 +1478,46 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5">
-        <v>5</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1539,18 +1528,20 @@
         <v>41</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1561,19 +1552,19 @@
         <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="6">
         <v>5</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -1582,98 +1573,30 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="6">
-        <v>5</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="14">
-        <v>5</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="14"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1682,10 +1605,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1699,13 +1622,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -1716,13 +1639,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,13 +1653,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,10 +1702,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 D1:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576 D1:D4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Marketing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1792,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
@@ -1812,25 +1735,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1838,19 +1761,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1859,13 +1782,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1880,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -1901,19 +1824,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1922,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1943,13 +1866,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1964,13 +1887,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -1985,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -2006,19 +1929,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2027,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -2048,13 +1971,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -2069,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -2090,13 +2013,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -2111,13 +2034,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -2132,13 +2055,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -2153,13 +2076,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -2174,13 +2097,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -2228,16 +2151,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C19:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C19:C1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Marketing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D1048576 D1:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D1048576 D1:D4" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Antech,Anirban,Debashish,Sayan,Rahul"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Sayan,Rahul,Debashish,Anirban,Ananya"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406836B6-2754-426C-A22A-65BC8684DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB4926-0845-404C-890A-B343B45E8A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Anttech will deliver website on 30th Jan 2024.</t>
-  </si>
-  <si>
-    <t>Uploaded course materials of Maths and Science for Std VIII. Maths &amp; Biology for Std IX.</t>
   </si>
   <si>
     <t>Must have a Login button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Plan School and College Visits</t>
+  </si>
+  <si>
+    <t>Uploaded all the courses of Std 8,9 &amp; 10</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -944,23 +944,23 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
-        <v>4</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>70</v>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1076,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1950,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -1992,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -2013,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -2034,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -2055,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -2097,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB4926-0845-404C-890A-B343B45E8A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CC534-1B84-46CF-96F1-B45F032D5F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
   <si>
     <t>Item Description</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Reel Plan (AI Ad)</t>
   </si>
   <si>
-    <t>Company Income Expense Ledger &amp; Balance Sheet</t>
-  </si>
-  <si>
     <t>Debashish</t>
   </si>
   <si>
@@ -76,18 +73,12 @@
     <t>Ops</t>
   </si>
   <si>
-    <t>Start in December</t>
-  </si>
-  <si>
     <t>CRM</t>
   </si>
   <si>
     <t>Start / config Selenium batch for Ashmita / Pranay</t>
   </si>
   <si>
-    <t>anodiam.com website</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -97,24 +88,9 @@
     <t>Google Anttech Google business site</t>
   </si>
   <si>
-    <t>Integration with Class plus website / app login</t>
-  </si>
-  <si>
-    <t>Student fees collection report for December</t>
-  </si>
-  <si>
-    <t>Batch start for Priyangsu Giri BBA Sem 1</t>
-  </si>
-  <si>
-    <t>Ask Classplus about the URL / hyperlink for anodiam web app login / register</t>
-  </si>
-  <si>
     <t>To start in Feb 4th week</t>
   </si>
   <si>
-    <t>Develop anodiam.com replicating the above https://www.google.business.anodiam.site</t>
-  </si>
-  <si>
     <t>Start from 4-Jan-2024</t>
   </si>
   <si>
@@ -124,57 +100,15 @@
     <t>AI Internal Classes - Sayan</t>
   </si>
   <si>
-    <t>CAT Batch Start</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Make a Google calander</t>
-  </si>
-  <si>
-    <t>Sayan and Anupam Sir Bank details</t>
-  </si>
-  <si>
-    <t>New email ID for Rahul and Sayan. Possible gmail group</t>
-  </si>
-  <si>
-    <t>New student attendance for Manju Ray's son</t>
-  </si>
-  <si>
-    <t>Classplus: Website first screen not responsive</t>
-  </si>
-  <si>
-    <t>Classplus: Login page appearing twice, is this a cache problem? How to sort this?</t>
-  </si>
-  <si>
-    <t>Classplus: Anodiam Branding absent</t>
-  </si>
-  <si>
-    <t>Sent mail to class plus. Waiting for reply.</t>
-  </si>
-  <si>
     <t>Publish purchased course materials on Anodiam platform</t>
   </si>
   <si>
-    <t>Prepare generic attachment proposals for schools: Notice</t>
-  </si>
-  <si>
-    <t>Prepare generic attachment proposals for colleges: Notice</t>
-  </si>
-  <si>
-    <t>Send Remuneration email to Anupam Sir</t>
-  </si>
-  <si>
-    <t>Ops Sheet by Debasish Da</t>
-  </si>
-  <si>
     <t>Pranay has been updated.</t>
   </si>
   <si>
-    <t>Conduct Internal Assessment Test BBA</t>
-  </si>
-  <si>
     <t>On pressing Website button the page should redirect to google.anodiam.mybusiness.site</t>
   </si>
   <si>
@@ -206,9 +140,6 @@
   </si>
   <si>
     <t>Training to Create Gmail groups</t>
-  </si>
-  <si>
-    <t>Test to be conducted on 29-Jan-2024</t>
   </si>
   <si>
     <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
@@ -337,6 +268,12 @@
   </si>
   <si>
     <t>Uploaded all the courses of Std 8,9 &amp; 10</t>
+  </si>
+  <si>
+    <t>Competitor Analysis</t>
+  </si>
+  <si>
+    <t>To be finished by 7th Feb</t>
   </si>
 </sst>
 </file>
@@ -374,24 +311,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -414,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,30 +386,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,28 +738,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -832,11 +767,11 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>84</v>
+      <c r="B2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -854,11 +789,11 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -867,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -876,11 +811,11 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>61</v>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -889,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -898,11 +833,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>60</v>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -911,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -920,14 +855,14 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -935,78 +870,78 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>69</v>
+      <c r="G6" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="B7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>53</v>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1014,23 +949,23 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="11">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>31</v>
+      <c r="G10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -1038,560 +973,193 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14">
-        <v>4</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>80</v>
+      <c r="G12" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>62</v>
+      <c r="E13" s="11">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>67</v>
+      <c r="F14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
+      <c r="F15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>23</v>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>18</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5">
-        <v>5</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="6">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="6">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="6">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6">
-        <v>3</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
+      <c r="E18" s="20">
+        <v>5</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1621,81 +1189,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1734,37 +1302,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1772,20 +1340,20 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1799,14 +1367,14 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1820,14 +1388,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1841,245 +1409,245 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2093,14 +1661,14 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -2114,7 +1682,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2123,7 +1691,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2132,7 +1700,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2141,7 +1709,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CC534-1B84-46CF-96F1-B45F032D5F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C51870-AA3B-43C5-811B-886CF0E07D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>Item Description</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>To be finished by 7th Feb</t>
+  </si>
+  <si>
+    <t>Send the course details of AI to Anish Bhattacharya</t>
+  </si>
+  <si>
+    <t>Send the course details of Cyber Security to Anish Bhattacharya</t>
+  </si>
+  <si>
+    <t>Email Id of Anish Bhattacharya : anishbhattacharya2209@gmail.com</t>
+  </si>
+  <si>
+    <t>Anish wants the certification of Ethical Hacking</t>
+  </si>
+  <si>
+    <t>Get the souce code access from Anttech</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -407,12 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -718,23 +727,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -875,29 +884,29 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1139,28 +1148,99 @@
       <c r="A18" s="5">
         <v>18</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="20">
-        <v>5</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>64</v>
       </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C51870-AA3B-43C5-811B-886CF0E07D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98662835-E44B-4984-ADDF-CDEA965F7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>Item Description</t>
   </si>
@@ -171,9 +171,6 @@
       </rPr>
       <t>NEET IIT institute in Kolkata - AI courses in Kolkata - IT Courses in Kolkata</t>
     </r>
-  </si>
-  <si>
-    <t>Anttech will deliver website on 30th Jan 2024.</t>
   </si>
   <si>
     <t>Must have a Login button "Visit anodiam.com website": upon clicking it will open anodiam.com &gt;&gt; classplus/YOWWA website</t>
@@ -289,6 +286,15 @@
   </si>
   <si>
     <t>Get the souce code access from Anttech</t>
+  </si>
+  <si>
+    <t>Send the course details of AI to Avijit Roy</t>
+  </si>
+  <si>
+    <t>Email Id of Avijot Roy : avitintin@gmail.com</t>
+  </si>
+  <si>
+    <t>We have requested Anttech to give source code access.</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -400,7 +406,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,18 +416,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,28 +750,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -777,87 +780,87 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -867,20 +870,20 @@
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>46</v>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -888,23 +891,23 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>62</v>
+      <c r="G7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -912,44 +915,44 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="1"/>
@@ -958,22 +961,22 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1"/>
@@ -982,45 +985,45 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>3</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>57</v>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1028,22 +1031,22 @@
       <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="11">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="1"/>
@@ -1052,22 +1055,22 @@
       <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="15">
         <v>3</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="1"/>
@@ -1076,22 +1079,22 @@
       <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="1"/>
@@ -1100,22 +1103,22 @@
       <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="1"/>
@@ -1124,123 +1127,147 @@
       <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="16">
-        <v>5</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>19</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="15">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="11">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="11">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E22" s="9">
+        <v>5</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations disablePrompts="1" count="2">
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
     </dataValidation>
@@ -1269,54 +1296,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,25 +1352,25 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1382,30 +1409,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1420,13 +1447,13 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1447,7 +1474,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1468,7 +1495,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1489,7 +1516,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1510,10 +1537,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1531,33 +1558,33 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1600,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1594,11 +1621,11 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1615,138 +1642,138 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1789,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1771,7 +1798,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1780,7 +1807,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1789,7 +1816,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98662835-E44B-4984-ADDF-CDEA965F7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307FA93-7567-422B-ABD4-2B41865D39AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,14 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Item Description</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>We have requested Anttech to give source code access.</t>
+  </si>
+  <si>
+    <t>Create a detailed syllabus for communication</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,11 +733,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +801,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -819,7 +823,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -841,7 +845,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1027,7 +1031,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1051,7 +1055,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1075,7 +1079,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -1171,7 +1175,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -1195,7 +1199,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -1219,7 +1223,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -1265,8 +1269,35 @@
       <c r="G22" s="9"/>
       <c r="H22" s="1"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="WIP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307FA93-7567-422B-ABD4-2B41865D39AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0F908-C6E5-4DBB-AE8A-E0B7C3F45C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
   <si>
     <t>Item Description</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Anish wants the certification of Ethical Hacking</t>
   </si>
   <si>
-    <t>Get the souce code access from Anttech</t>
-  </si>
-  <si>
     <t>Send the course details of AI to Avijit Roy</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>Create a detailed syllabus for communication</t>
+  </si>
+  <si>
+    <t>Get the access from Anttech</t>
+  </si>
+  <si>
+    <t>Modify the Google Anttech Website</t>
   </si>
 </sst>
 </file>
@@ -733,12 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +803,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -823,7 +825,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -845,7 +847,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -887,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1031,7 +1033,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1055,7 +1057,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1079,7 +1081,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1151,7 +1153,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -1175,7 +1177,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -1223,27 +1225,27 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="15">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -1251,30 +1253,30 @@
       <c r="A22" s="4">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9"/>
+      <c r="E22" s="14">
+        <v>5</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>15</v>
@@ -1289,15 +1291,32 @@
         <v>6</v>
       </c>
       <c r="G23" s="9"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="WIP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1425,7 +1444,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0F908-C6E5-4DBB-AE8A-E0B7C3F45C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A8E57-3B96-4054-AB44-7CDF2F52A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Antech-Issues" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>Item Description</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Publish AI course materials on Anodiam platform</t>
   </si>
   <si>
-    <t>Start from 11-Jan-2024</t>
-  </si>
-  <si>
     <t>Images &amp; Logos</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
   </si>
   <si>
     <t>About Us &amp; Service should have AI Professional &amp; IT</t>
-  </si>
-  <si>
-    <t>Google calander Training for team</t>
-  </si>
-  <si>
-    <t>Create events at meetup app or https://www.townscript.com/ or FB Events</t>
-  </si>
-  <si>
-    <t>Training to Create Gmail groups</t>
   </si>
   <si>
     <t xml:space="preserve">CRM calls: Just dial to Urban Pro: </t>
@@ -264,43 +252,22 @@
     <t>Plan School and College Visits</t>
   </si>
   <si>
-    <t>Uploaded all the courses of Std 8,9 &amp; 10</t>
-  </si>
-  <si>
-    <t>Competitor Analysis</t>
-  </si>
-  <si>
-    <t>To be finished by 7th Feb</t>
-  </si>
-  <si>
-    <t>Send the course details of AI to Anish Bhattacharya</t>
-  </si>
-  <si>
-    <t>Send the course details of Cyber Security to Anish Bhattacharya</t>
-  </si>
-  <si>
-    <t>Email Id of Anish Bhattacharya : anishbhattacharya2209@gmail.com</t>
-  </si>
-  <si>
-    <t>Anish wants the certification of Ethical Hacking</t>
-  </si>
-  <si>
-    <t>Send the course details of AI to Avijit Roy</t>
-  </si>
-  <si>
-    <t>Email Id of Avijot Roy : avitintin@gmail.com</t>
-  </si>
-  <si>
-    <t>We have requested Anttech to give source code access.</t>
-  </si>
-  <si>
     <t>Create a detailed syllabus for communication</t>
   </si>
   <si>
-    <t>Get the access from Anttech</t>
-  </si>
-  <si>
-    <t>Modify the Google Anttech Website</t>
+    <t>Update profitability sheet with AI course Values</t>
+  </si>
+  <si>
+    <t>Pending on Anttech business site</t>
+  </si>
+  <si>
+    <t>Start from 5-Feb-2024</t>
+  </si>
+  <si>
+    <t>Communication - Internal Classes</t>
+  </si>
+  <si>
+    <t>February Accounts</t>
   </si>
 </sst>
 </file>
@@ -338,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,19 +326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,14 +378,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -736,587 +687,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" customWidth="1"/>
+    <col min="7" max="7" width="58.86328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="14"/>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="B6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="11">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="G13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9">
-        <v>3</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>18</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="15">
-        <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>20</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="15">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="15">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="14">
-        <v>5</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>23</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>24</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1337,17 +1146,17 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1359,12 +1168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1373,12 +1182,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1387,12 +1196,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1401,25 +1210,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1447,20 +1256,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1481,12 +1290,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1502,7 +1311,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1523,12 +1332,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1544,12 +1353,12 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -1565,12 +1374,12 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1586,12 +1395,12 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1607,12 +1416,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1628,12 +1437,12 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1649,12 +1458,12 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1670,12 +1479,12 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1691,12 +1500,12 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1712,12 +1521,12 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1733,12 +1542,12 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1754,12 +1563,12 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1775,12 +1584,12 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1796,12 +1605,12 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1817,12 +1626,12 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1838,7 +1647,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1847,7 +1656,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1856,7 +1665,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1865,7 +1674,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A8E57-3B96-4054-AB44-7CDF2F52A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F34326-792E-404C-8D7A-A9F12D52ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>Item Description</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
-  </si>
-  <si>
-    <t>Need Bank A/c # &amp; IFSC for Rahul to generate payslip</t>
-  </si>
-  <si>
-    <t>Urgent requirement as it is pending for nearly 7 days.</t>
   </si>
   <si>
     <r>
@@ -687,26 +681,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" customWidth="1"/>
-    <col min="7" max="7" width="58.86328125" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
@@ -732,12 +727,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -752,11 +747,11 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -778,12 +773,12 @@
       <c r="G3" s="11"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
@@ -800,18 +795,18 @@
       <c r="G4" s="11"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11">
         <v>5</v>
@@ -819,39 +814,37 @@
       <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
@@ -865,21 +858,23 @@
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8" s="11">
         <v>4</v>
@@ -887,23 +882,21 @@
       <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11">
         <v>4</v>
@@ -911,21 +904,23 @@
       <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="11">
         <v>4</v>
@@ -933,23 +928,21 @@
       <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" s="11">
         <v>4</v>
@@ -960,58 +953,60 @@
       <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
@@ -1030,102 +1025,84 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sayan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1146,15 +1123,15 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1168,12 +1145,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1182,12 +1159,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1196,12 +1173,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1210,25 +1187,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1256,18 +1233,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1290,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1311,7 +1288,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1332,12 +1309,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1353,7 +1330,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1374,7 +1351,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1395,7 +1372,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1416,12 +1393,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1437,12 +1414,12 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1458,7 +1435,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1479,12 +1456,12 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1500,12 +1477,12 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1521,12 +1498,12 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1542,12 +1519,12 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1563,12 +1540,12 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1584,12 +1561,12 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1605,12 +1582,12 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1626,12 +1603,12 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1647,7 +1624,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1656,7 +1633,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1665,7 +1642,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1674,7 +1651,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F34326-792E-404C-8D7A-A9F12D52ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E658EE-1EBD-452E-BA41-956E504E0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -681,7 +681,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -689,19 +688,19 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
     <col min="7" max="7" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
@@ -727,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -751,7 +750,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -773,7 +772,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -795,7 +794,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -817,7 +816,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -839,7 +838,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -863,7 +862,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -885,7 +884,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -909,7 +908,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -931,7 +930,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -953,7 +952,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -977,7 +976,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1001,7 +1000,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1025,7 +1024,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1073,7 +1072,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1096,13 +1095,7 @@
       <c r="H17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sayan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
@@ -1123,15 +1116,15 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1173,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1187,25 +1180,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1233,18 +1226,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1288,7 +1281,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1309,7 +1302,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1330,7 +1323,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1351,7 +1344,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1372,7 +1365,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1393,7 +1386,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1414,7 +1407,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1435,7 +1428,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1456,7 +1449,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1477,7 +1470,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1498,7 +1491,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1519,7 +1512,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1540,7 +1533,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1561,7 +1554,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1582,7 +1575,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1603,7 +1596,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1624,7 +1617,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1633,7 +1626,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1642,7 +1635,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1651,7 +1644,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FBBD8C-CAC6-4E5C-926A-D831A0637F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43D1E3B-40A0-475C-9650-4E47A3094DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>Item Description</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Pranay has been updated.</t>
-  </si>
-  <si>
-    <t>Videos, Youtube content. Create an youtube channel and start putting in our contents</t>
   </si>
   <si>
     <t>SlNo</t>
@@ -141,9 +138,6 @@
     <t>Communication - Internal Classes</t>
   </si>
   <si>
-    <t>Write full names of institutions for Emails</t>
-  </si>
-  <si>
     <t>Close UAT Defects of Anodiam Business Site</t>
   </si>
   <si>
@@ -159,13 +153,49 @@
     <t>Plan the table of contents for the syllabus</t>
   </si>
   <si>
-    <t>Publish AI &amp; Java course materials on Anodiam platform</t>
-  </si>
-  <si>
-    <t>PPTs only for now at version 0.0.1. Debasish da to work on Java Materials</t>
-  </si>
-  <si>
     <t>Write email to stop just dial</t>
+  </si>
+  <si>
+    <t>Resize invitation Email</t>
+  </si>
+  <si>
+    <t>Dependency on youtube videos, Cover page for class plus courses</t>
+  </si>
+  <si>
+    <t>Make scripts for 5 star google reviews</t>
+  </si>
+  <si>
+    <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Pratyay Kayali, Pritam, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
+  </si>
+  <si>
+    <t>Debashish</t>
+  </si>
+  <si>
+    <t>Create an youtube channel</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Create Videos &amp; Youtube content. Start putting in our Youtube channel</t>
+  </si>
+  <si>
+    <t>Publish AI course materials on Anodiam platform</t>
+  </si>
+  <si>
+    <t>Publish Java course materials on Anodiam platform</t>
+  </si>
+  <si>
+    <t>PPTs only for now at version 0.0.1.</t>
+  </si>
+  <si>
+    <t>To be finished by 15-Feb</t>
+  </si>
+  <si>
+    <t>PPTs only for now at version 0.0.1. Debasish da to work on Java Materials. Add slides for Advanced Java &amp; MySQL etc. in next versions</t>
+  </si>
+  <si>
+    <t>Institution full name to be listed</t>
   </si>
 </sst>
 </file>
@@ -257,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,8 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -592,13 +620,13 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.19921875" customWidth="1"/>
     <col min="6" max="6" width="7.19921875" customWidth="1"/>
-    <col min="7" max="7" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -627,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -642,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -651,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -672,98 +700,108 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -771,112 +809,109 @@
       <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>4</v>
@@ -884,17 +919,15 @@
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -909,19 +942,19 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -932,112 +965,116 @@
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -1049,36 +1086,130 @@
         <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43D1E3B-40A0-475C-9650-4E47A3094DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7571100-1F9D-4727-82D8-594260CE1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>Item Description</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Publish Java course materials on Anodiam platform</t>
   </si>
   <si>
-    <t>PPTs only for now at version 0.0.1.</t>
-  </si>
-  <si>
     <t>To be finished by 15-Feb</t>
   </si>
   <si>
@@ -196,6 +193,12 @@
   </si>
   <si>
     <t>Institution full name to be listed</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>PPTs only for now at version 0.0.1. Python for AI has been uploaded in Classplus website (Price given is Rs 1 as we will teach free)</t>
   </si>
 </sst>
 </file>
@@ -605,26 +608,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
-    <col min="7" max="7" width="93.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="93.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -650,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -674,7 +678,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -696,12 +700,12 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -718,7 +722,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -742,7 +746,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -766,7 +770,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -790,7 +794,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -834,7 +838,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -856,7 +860,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -878,7 +882,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -900,7 +904,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -922,7 +926,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -946,7 +950,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -970,7 +974,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -994,7 +998,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1014,11 +1018,11 @@
         <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1035,14 +1039,14 @@
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1062,11 +1066,11 @@
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1090,7 +1094,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1112,7 +1116,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1136,7 +1140,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1184,7 +1188,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1209,7 +1213,13 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Rahul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7571100-1F9D-4727-82D8-594260CE1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AF100-98A6-45CD-91F6-35C363CF877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -624,7 +623,7 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.21875" customWidth="1"/>
     <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="93.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,7 +677,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -722,7 +721,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -770,7 +769,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -794,7 +793,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -816,7 +815,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -838,7 +837,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -860,7 +859,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -882,7 +881,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -926,7 +925,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -974,7 +973,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -998,7 +997,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1022,7 +1021,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1094,7 +1093,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1116,7 +1115,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1140,7 +1139,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1213,13 +1212,7 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Rahul"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AF100-98A6-45CD-91F6-35C363CF877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566BA79-09D6-4C38-BF78-FD14A0D3338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>AI Internal Classes - Sayan</t>
   </si>
   <si>
-    <t>Pranay has been updated.</t>
-  </si>
-  <si>
     <t>SlNo</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>PPTs only for now at version 0.0.1. Python for AI has been uploaded in Classplus website (Price given is Rs 1 as we will teach free)</t>
+  </si>
+  <si>
+    <t>Ashmita did not picked up the call.</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -304,6 +310,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -658,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -673,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -682,13 +689,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -704,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -726,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -741,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -750,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -765,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -774,13 +781,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
@@ -789,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -798,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -820,13 +827,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="5">
         <v>5</v>
@@ -842,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -864,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -886,13 +893,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <v>5</v>
@@ -908,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -945,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -954,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -969,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1002,7 +1009,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
@@ -1017,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1026,22 +1033,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1050,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
@@ -1065,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -1074,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
@@ -1089,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1098,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
@@ -1167,23 +1174,23 @@
       <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>24</v>
+      <c r="F24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H24" s="6"/>
     </row>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566BA79-09D6-4C38-BF78-FD14A0D3338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB53C0B-9180-46FC-B624-19442E0838F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,11 +615,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +685,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -728,7 +729,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -769,14 +770,14 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -800,7 +801,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -844,7 +845,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -866,7 +867,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -888,7 +889,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -910,7 +911,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -932,7 +933,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -980,7 +981,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1028,7 +1029,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1100,7 +1101,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1122,7 +1123,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1219,7 +1220,13 @@
       <c r="H25" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Rahul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB53C0B-9180-46FC-B624-19442E0838F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFA3DE-7E5D-406B-B6EB-5C1AA197B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1223,7 +1223,7 @@
   <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Rahul"/>
+        <filter val="Sayan"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFA3DE-7E5D-406B-B6EB-5C1AA197B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D3472-A4F6-40E4-9E2C-70CA504ED49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Item Description</t>
   </si>
@@ -71,9 +71,6 @@
     <t>CRM</t>
   </si>
   <si>
-    <t>Start / config Selenium batch for Ashmita / Pranay</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -102,6 +99,69 @@
   </si>
   <si>
     <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
+  </si>
+  <si>
+    <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com. After 5th Feb.</t>
+  </si>
+  <si>
+    <t>Plan School and College Visits</t>
+  </si>
+  <si>
+    <t>Create a detailed syllabus for communication</t>
+  </si>
+  <si>
+    <t>Start from 5-Feb-2024</t>
+  </si>
+  <si>
+    <t>Communication - Internal Classes</t>
+  </si>
+  <si>
+    <t>Close UAT Defects of Anodiam Business Site</t>
+  </si>
+  <si>
+    <t>Create Subdomain for login into classplus app</t>
+  </si>
+  <si>
+    <t>Download Anttech business site source code and upload it to anodiam.com domain</t>
+  </si>
+  <si>
+    <t>Pending on Anttech business site, Email body shortened and rectified, Institution Full name left</t>
+  </si>
+  <si>
+    <t>Plan the table of contents for the syllabus</t>
+  </si>
+  <si>
+    <t>Write email to stop just dial</t>
+  </si>
+  <si>
+    <t>Resize invitation Email</t>
+  </si>
+  <si>
+    <t>Dependency on youtube videos, Cover page for class plus courses</t>
+  </si>
+  <si>
+    <t>Make scripts for 5 star google reviews</t>
+  </si>
+  <si>
+    <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Pratyay Kayali, Pritam, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
+  </si>
+  <si>
+    <t>Debashish</t>
+  </si>
+  <si>
+    <t>Create Videos &amp; Youtube content. Start putting in our Youtube channel</t>
+  </si>
+  <si>
+    <t>Publish AI course materials on Anodiam platform</t>
+  </si>
+  <si>
+    <t>To be finished by 15-Feb</t>
+  </si>
+  <si>
+    <t>Institution full name to be listed</t>
+  </si>
+  <si>
+    <t>PPTs only for now at version 0.0.1. Python for AI has been uploaded in Classplus website (Price given is Rs 1 as we will teach free)</t>
   </si>
   <si>
     <r>
@@ -116,89 +176,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NEET IIT institute in Kolkata - AI courses in Kolkata - IT Courses in Kolkata</t>
+      <t>- 
+1. AI/ML courses
+2. AI tuition
+3. IT courses</t>
     </r>
   </si>
   <si>
-    <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com. After 5th Feb.</t>
-  </si>
-  <si>
-    <t>Plan School and College Visits</t>
-  </si>
-  <si>
-    <t>Create a detailed syllabus for communication</t>
-  </si>
-  <si>
-    <t>Start from 5-Feb-2024</t>
-  </si>
-  <si>
-    <t>Communication - Internal Classes</t>
-  </si>
-  <si>
-    <t>Close UAT Defects of Anodiam Business Site</t>
-  </si>
-  <si>
-    <t>Create Subdomain for login into classplus app</t>
-  </si>
-  <si>
-    <t>Download Anttech business site source code and upload it to anodiam.com domain</t>
-  </si>
-  <si>
-    <t>Pending on Anttech business site, Email body shortened and rectified, Institution Full name left</t>
-  </si>
-  <si>
-    <t>Plan the table of contents for the syllabus</t>
-  </si>
-  <si>
-    <t>Write email to stop just dial</t>
-  </si>
-  <si>
-    <t>Resize invitation Email</t>
-  </si>
-  <si>
-    <t>Dependency on youtube videos, Cover page for class plus courses</t>
-  </si>
-  <si>
-    <t>Make scripts for 5 star google reviews</t>
-  </si>
-  <si>
-    <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Pratyay Kayali, Pritam, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
-  </si>
-  <si>
-    <t>Debashish</t>
-  </si>
-  <si>
-    <t>Create an youtube channel</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>Create Videos &amp; Youtube content. Start putting in our Youtube channel</t>
-  </si>
-  <si>
-    <t>Publish AI course materials on Anodiam platform</t>
-  </si>
-  <si>
-    <t>Publish Java course materials on Anodiam platform</t>
-  </si>
-  <si>
-    <t>To be finished by 15-Feb</t>
-  </si>
-  <si>
-    <t>PPTs only for now at version 0.0.1. Debasish da to work on Java Materials. Add slides for Advanced Java &amp; MySQL etc. in next versions</t>
-  </si>
-  <si>
-    <t>Institution full name to be listed</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>PPTs only for now at version 0.0.1. Python for AI has been uploaded in Classplus website (Price given is Rs 1 as we will teach free)</t>
-  </si>
-  <si>
-    <t>Ashmita did not picked up the call.</t>
+    <t>Slides for Advanced Java &amp; MySQL</t>
+  </si>
+  <si>
+    <t>Pending on Anttech business site defect closure</t>
   </si>
 </sst>
 </file>
@@ -236,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,29 +599,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="114.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -649,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -661,12 +644,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -681,22 +664,22 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -707,12 +690,12 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -729,12 +712,12 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -749,16 +732,16 @@
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -773,22 +756,22 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
@@ -797,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -823,18 +806,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="5">
         <v>5</v>
@@ -845,12 +828,12 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -864,59 +847,61 @@
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -930,21 +915,23 @@
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -953,22 +940,22 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -977,22 +964,22 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -1001,134 +988,132 @@
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>14</v>
@@ -1143,90 +1128,36 @@
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sayan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D3472-A4F6-40E4-9E2C-70CA504ED49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA4DC4-926C-44FA-B373-EB82F5D9DF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -602,23 +602,23 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
-    <col min="7" max="7" width="114.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -712,9 +712,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
@@ -736,9 +736,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -760,9 +760,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -784,9 +784,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>48</v>
@@ -806,9 +806,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -828,9 +828,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
@@ -850,9 +850,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -874,9 +874,9 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
@@ -896,9 +896,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -920,9 +920,9 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>31</v>
@@ -944,9 +944,9 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -968,9 +968,9 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>44</v>
@@ -992,9 +992,9 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>49</v>
@@ -1014,9 +1014,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>29</v>
@@ -1038,9 +1038,9 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1062,9 +1062,9 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>37</v>
@@ -1084,9 +1084,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -1108,9 +1108,9 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
@@ -1132,9 +1132,9 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA4DC4-926C-44FA-B373-EB82F5D9DF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF136BD9-CD75-4AD6-96C7-04DEE3A8997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Item Description</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Plan School and College Visits</t>
   </si>
   <si>
-    <t>Create a detailed syllabus for communication</t>
-  </si>
-  <si>
     <t>Start from 5-Feb-2024</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>Write email to stop just dial</t>
-  </si>
-  <si>
-    <t>Resize invitation Email</t>
   </si>
   <si>
     <t>Dependency on youtube videos, Cover page for class plus courses</t>
@@ -187,6 +181,9 @@
   </si>
   <si>
     <t>Pending on Anttech business site defect closure</t>
+  </si>
+  <si>
+    <t>Create a detailed syllabus and PPTs for communication</t>
   </si>
 </sst>
 </file>
@@ -599,26 +596,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="114.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -644,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -664,22 +662,22 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -690,18 +688,18 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
@@ -709,21 +707,23 @@
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
@@ -731,23 +731,23 @@
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -756,46 +756,44 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -806,12 +804,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -825,61 +823,61 @@
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -893,21 +891,23 @@
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>4</v>
@@ -916,22 +916,22 @@
         <v>6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -940,22 +940,22 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -964,132 +964,132 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
@@ -1108,56 +1108,38 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sayan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA4DC4-926C-44FA-B373-EB82F5D9DF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE95FB-B450-4A27-970E-9DBCBFB7E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>Item Description</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Publish AI course materials on Anodiam platform</t>
-  </si>
-  <si>
-    <t>To be finished by 15-Feb</t>
   </si>
   <si>
     <t>Institution full name to be listed</t>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>Pending on Anttech business site defect closure</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To be finished by 19-Feb</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +672,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -695,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -707,12 +711,12 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -760,7 +764,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -784,12 +788,12 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -806,7 +810,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -828,7 +832,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -850,7 +854,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -870,11 +874,11 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -944,7 +948,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -968,7 +972,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -988,16 +992,16 @@
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
@@ -1034,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1062,7 +1066,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1084,7 +1088,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1108,7 +1112,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1157,7 +1161,13 @@
       <c r="H23" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Rahul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE95FB-B450-4A27-970E-9DBCBFB7E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0165E6-AAB3-4013-ADC1-59AE27DA44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1013,12 +1013,12 @@
         <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1164,7 +1164,7 @@
   <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Rahul"/>
+        <filter val="Debashish"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0165E6-AAB3-4013-ADC1-59AE27DA44DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A3636-B3AE-4FE6-9514-18E2FE8F87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Item Description</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Pending on Anttech business site defect closure</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>To be finished by 19-Feb</t>
@@ -607,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -694,7 +691,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -711,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
@@ -740,7 +737,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -764,7 +761,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -854,7 +851,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -924,7 +921,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -996,7 +993,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1018,7 +1015,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1038,11 +1035,11 @@
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1136,7 +1133,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1164,7 +1161,7 @@
   <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Debashish"/>
+        <filter val="Rahul"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A3636-B3AE-4FE6-9514-18E2FE8F87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553BF62-8D21-46F5-ABC9-E8927D88C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Item Description</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>To be finished by 19-Feb</t>
+  </si>
+  <si>
+    <t>Advanced Java Slides done. MySQL slides are in progress.</t>
   </si>
 </sst>
 </file>
@@ -599,12 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +671,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -713,7 +715,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -761,7 +763,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -785,7 +787,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -807,7 +809,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -829,7 +831,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -851,7 +853,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -875,7 +877,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -897,7 +899,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -945,7 +947,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -969,7 +971,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -993,7 +995,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1012,7 +1014,9 @@
       <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1063,7 +1067,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1085,7 +1089,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1109,7 +1113,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1158,13 +1162,7 @@
       <c r="H23" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Rahul"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A3636-B3AE-4FE6-9514-18E2FE8F87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70237539-D985-4D54-B76A-44E14E0DF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Item Description</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Get some 5 star reviews</t>
   </si>
   <si>
-    <t>Create generic Thumbnail (Coverpage) image / ppt for courses</t>
-  </si>
-  <si>
     <t>Check Just Dial daily. Transfer to Urban Pro. Just Dial email Id : kolkata@justdial.com. After 5th Feb.</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Communication - Internal Classes</t>
   </si>
   <si>
-    <t>Close UAT Defects of Anodiam Business Site</t>
-  </si>
-  <si>
     <t>Create Subdomain for login into classplus app</t>
   </si>
   <si>
@@ -132,15 +126,6 @@
   </si>
   <si>
     <t>Write email to stop just dial</t>
-  </si>
-  <si>
-    <t>Resize invitation Email</t>
-  </si>
-  <si>
-    <t>Dependency on youtube videos, Cover page for class plus courses</t>
-  </si>
-  <si>
-    <t>Make scripts for 5 star google reviews</t>
   </si>
   <si>
     <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Pratyay Kayali, Pritam, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
@@ -599,27 +584,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="114.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -645,12 +629,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -665,22 +649,22 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -691,18 +675,18 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
@@ -710,18 +694,20 @@
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -732,155 +718,155 @@
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="5">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -894,42 +880,42 @@
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -941,230 +927,130 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
-        <v>4</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Rahul"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70237539-D985-4D54-B76A-44E14E0DF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628860-A953-44A2-89BB-4B5178F5A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Item Description</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Write email to stop just dial</t>
-  </si>
-  <si>
-    <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Pratyay Kayali, Pritam, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
   </si>
   <si>
     <t>Debashish</t>
@@ -165,13 +162,28 @@
     </r>
   </si>
   <si>
-    <t>Slides for Advanced Java &amp; MySQL</t>
-  </si>
-  <si>
     <t>Pending on Anttech business site defect closure</t>
   </si>
   <si>
     <t>To be finished by 19-Feb</t>
+  </si>
+  <si>
+    <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides for Advanced Java </t>
+  </si>
+  <si>
+    <t>Slides for MySQL</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>You tube Video for Advanced Java</t>
+  </si>
+  <si>
+    <t>You tube Video for MySQL</t>
   </si>
 </sst>
 </file>
@@ -263,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,6 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,26 +597,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" customWidth="1"/>
-    <col min="7" max="7" width="114.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="114.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -629,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -653,12 +667,12 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -675,7 +689,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -686,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
@@ -695,16 +709,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -716,17 +730,17 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -743,7 +757,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -765,7 +779,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -776,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
@@ -785,11 +799,11 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -813,7 +827,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>13</v>
       </c>
@@ -837,7 +851,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -861,12 +875,12 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -881,33 +895,33 @@
         <v>6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5">
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -927,11 +941,11 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -955,7 +969,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>19</v>
       </c>
@@ -977,7 +991,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -1001,7 +1015,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>21</v>
       </c>
@@ -1025,7 +1039,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>22</v>
       </c>
@@ -1049,8 +1063,80 @@
       </c>
       <c r="H19" s="6"/>
     </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Anirban"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>

--- a/Offline/BusinessManagement/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F628860-A953-44A2-89BB-4B5178F5A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC66EFF-3EE4-48DE-8E22-E56EACD33A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Item Description</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Publish AI course materials on Anodiam platform</t>
-  </si>
-  <si>
-    <t>Institution full name to be listed</t>
   </si>
   <si>
     <t>PPTs only for now at version 0.0.1. Python for AI has been uploaded in Classplus website (Price given is Rs 1 as we will teach free)</t>
@@ -165,9 +162,6 @@
     <t>Pending on Anttech business site defect closure</t>
   </si>
   <si>
-    <t>To be finished by 19-Feb</t>
-  </si>
-  <si>
     <t>Collect 5-6 actual reviews from Santanu, Avishek, Sahista, Sayan, Bappa, Ananya, Debasish Sir, Rahul</t>
   </si>
   <si>
@@ -184,6 +178,18 @@
   </si>
   <si>
     <t>You tube Video for MySQL</t>
+  </si>
+  <si>
+    <t>Seggration of courses in 3 parts in Class Pluss App</t>
+  </si>
+  <si>
+    <t>Complete Just Dial calls in CRM sheet</t>
+  </si>
+  <si>
+    <t>Rahul's Laptop</t>
+  </si>
+  <si>
+    <t>Start AI Free Batch</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,7 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,12 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -667,18 +671,18 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -686,21 +690,23 @@
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
@@ -708,39 +714,37 @@
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -754,67 +758,69 @@
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -823,22 +829,22 @@
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
         <v>4</v>
@@ -847,22 +853,22 @@
         <v>6</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
@@ -871,132 +877,130 @@
         <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
@@ -1017,57 +1021,55 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>22</v>
-      </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1076,21 +1078,21 @@
       <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="8">
-        <v>5</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>15</v>
@@ -1098,21 +1100,21 @@
       <c r="D21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="8">
-        <v>4</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>15</v>
@@ -1120,23 +1122,83 @@
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Anirban"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Todo,WIP,Done"</formula1>
